--- a/sriramModel-nelson-melancholic-patientID_13-sims-acth-5-iterations-p_stress.xlsx
+++ b/sriramModel-nelson-melancholic-patientID_13-sims-acth-5-iterations-p_stress.xlsx
@@ -394,19 +394,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.45204844676061</v>
+        <v>21.37764994574565</v>
       </c>
       <c r="C2">
-        <v>21.50882609904566</v>
+        <v>21.37144097542423</v>
       </c>
       <c r="D2">
-        <v>21.42341183839596</v>
+        <v>21.4037918497541</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>21.35084028481037</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>21.36083632294275</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -414,19 +414,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.50558027167439</v>
+        <v>21.36426424688404</v>
       </c>
       <c r="C3">
-        <v>21.61386608935466</v>
+        <v>21.34680075706804</v>
       </c>
       <c r="D3">
-        <v>21.44928474657566</v>
+        <v>21.41104143062938</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>21.30904096009706</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>21.32988324319343</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -434,19 +434,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.56057553715583</v>
+        <v>21.35960379422755</v>
       </c>
       <c r="C4">
-        <v>21.71515288253121</v>
+        <v>21.32605701299062</v>
       </c>
       <c r="D4">
-        <v>21.47759557791933</v>
+        <v>21.42169713038991</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>21.27454855653432</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>21.30700535488842</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -454,19 +454,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.61701458256039</v>
+        <v>21.36343160229215</v>
       </c>
       <c r="C5">
-        <v>21.81271982381184</v>
+        <v>21.3091876916067</v>
       </c>
       <c r="D5">
-        <v>21.50832147108759</v>
+        <v>21.43570902670136</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>21.24731067470304</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>21.29206610462903</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -474,19 +474,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.67487801787522</v>
+        <v>21.3755123253803</v>
       </c>
       <c r="C6">
-        <v>21.90660070383685</v>
+        <v>21.29617102834096</v>
       </c>
       <c r="D6">
-        <v>21.54143984440455</v>
+        <v>21.45302878403273</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>21.22727604603232</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>21.28492756036753</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -494,19 +494,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.734146717359</v>
+        <v>21.39561198444986</v>
       </c>
       <c r="C7">
-        <v>21.99682977024646</v>
+        <v>21.28698553624931</v>
       </c>
       <c r="D7">
-        <v>21.57692839034809</v>
+        <v>21.47360957555916</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>21.21439443725132</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>21.28545031304549</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -514,19 +514,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.79480181310016</v>
+        <v>21.42349767899989</v>
       </c>
       <c r="C8">
-        <v>22.08344173905398</v>
+        <v>21.28160999545172</v>
       </c>
       <c r="D8">
-        <v>21.61476507013764</v>
+        <v>21.49740595712289</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>21.20861658676959</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>21.29349342465023</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -534,19 +534,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.85682468845699</v>
+        <v>21.45893739093968</v>
       </c>
       <c r="C9">
-        <v>22.16647180575881</v>
+        <v>21.28002344040159</v>
       </c>
       <c r="D9">
-        <v>21.65492810840992</v>
+        <v>21.52437379427622</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>21.20989415331724</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>21.30891428538387</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -554,19 +554,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.92019697133774</v>
+        <v>21.50169976720951</v>
       </c>
       <c r="C10">
-        <v>22.24595565614751</v>
+        <v>21.28220514590982</v>
       </c>
       <c r="D10">
-        <v>21.69739598796825</v>
+        <v>21.55447017340492</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>21.21817964634304</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>21.33156850338511</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -574,19 +574,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>21.9849005272738</v>
+        <v>21.55155390006986</v>
       </c>
       <c r="C11">
-        <v>22.32192947672726</v>
+        <v>21.28813461236736</v>
       </c>
       <c r="D11">
-        <v>21.74214744459043</v>
+        <v>21.58765331723772</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>21.23342634846478</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>21.36130978467672</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -594,19 +594,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.0509174522332</v>
+        <v>21.60826914793119</v>
       </c>
       <c r="C12">
-        <v>22.39442996472711</v>
+        <v>21.29779155166686</v>
       </c>
       <c r="D12">
-        <v>21.78916146187772</v>
+        <v>21.6238825125652</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>21.25558823666324</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>21.39798980646346</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -614,19 +614,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.11823006511481</v>
+        <v>21.67161496206897</v>
       </c>
       <c r="C13">
-        <v>22.46349433759425</v>
+        <v>21.31115587070394</v>
       </c>
       <c r="D13">
-        <v>21.83841726612523</v>
+        <v>21.66311803136075</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>21.28461989702359</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>21.44145808713587</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -634,19 +634,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.18682089985558</v>
+        <v>21.74136070950411</v>
       </c>
       <c r="C14">
-        <v>22.5291603419025</v>
+        <v>21.32820764648197</v>
       </c>
       <c r="D14">
-        <v>21.88989432119043</v>
+        <v>21.70532104403496</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>21.32047642889347</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>21.49156184491773</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -654,19 +654,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.25667269707429</v>
+        <v>21.81727554468144</v>
       </c>
       <c r="C15">
-        <v>22.59146626157988</v>
+        <v>21.34892710532034</v>
       </c>
       <c r="D15">
-        <v>21.94357232333289</v>
+        <v>21.75045353741038</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>21.36311333542026</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>21.54814586368995</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -674,19 +674,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.3277683951646</v>
+        <v>21.89912826563294</v>
       </c>
       <c r="C16">
-        <v>22.65045092535032</v>
+        <v>21.37329459991268</v>
       </c>
       <c r="D16">
-        <v>21.99943119599288</v>
+        <v>21.79847823675938</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>21.41248639801303</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>21.61105233077623</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -694,19 +694,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.40009112073806</v>
+        <v>21.98668711861024</v>
       </c>
       <c r="C17">
-        <v>22.70615371327192</v>
+        <v>21.40129057963149</v>
       </c>
       <c r="D17">
-        <v>22.05745108447068</v>
+        <v>21.84935852908895</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>21.46855149787999</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>21.68012067795195</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -714,19 +714,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.47362417830404</v>
+        <v>22.07971966342236</v>
       </c>
       <c r="C18">
-        <v>22.75861456223884</v>
+        <v>21.43289555502922</v>
       </c>
       <c r="D18">
-        <v>22.11761235046029</v>
+        <v>21.90305837512993</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>21.53126453458222</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>21.75518743310788</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -734,19 +734,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.54835103905717</v>
+        <v>22.17799263838064</v>
       </c>
       <c r="C19">
-        <v>22.80787397029841</v>
+        <v>21.46809005780156</v>
       </c>
       <c r="D19">
-        <v>22.17989556638155</v>
+        <v>21.95954221203365</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>21.60058115542215</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>21.83608602457642</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -754,19 +754,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.62425532862465</v>
+        <v>22.28127181020535</v>
       </c>
       <c r="C20">
-        <v>22.85397299961626</v>
+        <v>21.5068546059978</v>
       </c>
       <c r="D20">
-        <v>22.2442815094425</v>
+        <v>22.0187748555691</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>21.67645655477656</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>21.92264661092843</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -774,19 +774,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.70132081360376</v>
+        <v>22.38932185631793</v>
       </c>
       <c r="C21">
-        <v>22.89695327790131</v>
+        <v>21.54916964336986</v>
       </c>
       <c r="D21">
-        <v>22.31075115534841</v>
+        <v>22.08072138977241</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>21.75884527213754</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>22.01469590324132</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -794,19 +794,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>22.77953138669528</v>
+        <v>22.50190623293962</v>
       </c>
       <c r="C22">
-        <v>22.93685699807835</v>
+        <v>21.59501548268414</v>
       </c>
       <c r="D22">
-        <v>22.37928567155404</v>
+        <v>22.14534706834414</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>21.84770070519592</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>22.11205695059767</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -814,19 +814,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.85887105020926</v>
+        <v>22.61878701359551</v>
       </c>
       <c r="C23">
-        <v>22.97372691596789</v>
+        <v>21.64437223561656</v>
       </c>
       <c r="D23">
-        <v>22.44986640993179</v>
+        <v>22.2126171427987</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>21.94297484831496</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>22.21454894197599</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -834,19 +834,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.93932389768501</v>
+        <v>22.73972475467595</v>
       </c>
       <c r="C24">
-        <v>23.00760634570035</v>
+        <v>21.69721973695723</v>
       </c>
       <c r="D24">
-        <v>22.52247489869675</v>
+        <v>22.28249680503128</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>22.04461788643642</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>22.32198700256273</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -854,19 +854,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.02087409332763</v>
+        <v>22.86447834802838</v>
       </c>
       <c r="C25">
-        <v>23.03853915255238</v>
+        <v>21.75353745275198</v>
       </c>
       <c r="D25">
-        <v>22.59709283339021</v>
+        <v>22.35495090025935</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>22.15257762994919</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>22.43418193724127</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -874,19 +874,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>23.10350584891579</v>
+        <v>22.99280487771492</v>
       </c>
       <c r="C26">
-        <v>23.06656974284763</v>
+        <v>21.81330437655485</v>
       </c>
       <c r="D26">
-        <v>22.67370206667273</v>
+        <v>22.42994389424689</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>22.26679891917076</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>22.55094002239069</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -894,19 +894,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>23.18720339777937</v>
+        <v>23.1244594760159</v>
       </c>
       <c r="C27">
-        <v>23.09174305050565</v>
+        <v>21.87649890837868</v>
       </c>
       <c r="D27">
-        <v>22.75228459661351</v>
+        <v>22.50743951589703</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>22.3872230701041</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>22.67206276140814</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -914,19 +914,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>23.27195096537922</v>
+        <v>23.25919517162082</v>
       </c>
       <c r="C28">
-        <v>23.11410451975521</v>
+        <v>21.94309871589613</v>
       </c>
       <c r="D28">
-        <v>22.83282255308005</v>
+        <v>22.58740066718417</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>22.51378688674595</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>22.79734660831469</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -934,19 +934,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>23.35773273594223</v>
+        <v>23.39676273355613</v>
       </c>
       <c r="C29">
-        <v>23.1337000834412</v>
+        <v>22.01308058219321</v>
       </c>
       <c r="D29">
-        <v>22.91529818172547</v>
+        <v>22.669789051534</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>22.64642175605674</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>22.92658271560744</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -954,19 +954,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>23.4445328145087</v>
+        <v>23.53691051201009</v>
       </c>
       <c r="C30">
-        <v>23.15057613624635</v>
+        <v>22.08642021685512</v>
       </c>
       <c r="D30">
-        <v>22.99969382493456</v>
+        <v>22.75456492476867</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>22.78505274319096</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>23.05955665512059</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -974,19 +974,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>23.53233518363523</v>
+        <v>23.67938426975429</v>
       </c>
       <c r="C31">
-        <v>23.16477950201238</v>
+        <v>22.16309205314178</v>
       </c>
       <c r="D31">
-        <v>23.08599189891205</v>
+        <v>22.8416867911312</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>22.9295971031424</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>23.19604809616097</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -994,19 +994,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>23.6211236538577</v>
+        <v>23.82392701148255</v>
       </c>
       <c r="C32">
-        <v>23.17635739416883</v>
+        <v>22.24306901234093</v>
       </c>
       <c r="D32">
-        <v>23.17417486586715</v>
+        <v>22.93111081740392</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>23.07996287226763</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>23.33583052667786</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1014,19 +1014,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>23.71088180684972</v>
+        <v>23.97027880624194</v>
       </c>
       <c r="C33">
-        <v>23.18535736805326</v>
+        <v>22.32632223203055</v>
       </c>
       <c r="D33">
-        <v>23.26422519995015</v>
+        <v>23.02279073029409</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>23.23604746713596</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>23.47867092503786</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1034,19 +1034,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>23.80159293000623</v>
+        <v>24.11817660144867</v>
       </c>
       <c r="C34">
-        <v>23.19182726361034</v>
+        <v>22.41282077295197</v>
       </c>
       <c r="D34">
-        <v>23.35612534520926</v>
+        <v>23.11667680582022</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>23.397735473906</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>23.62432941179305</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1054,19 +1054,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>23.89323994093153</v>
+        <v>24.26735403217605</v>
       </c>
       <c r="C35">
-        <v>23.19581513657558</v>
+        <v>22.50253125773591</v>
       </c>
       <c r="D35">
-        <v>23.44985766332982</v>
+        <v>23.21271578586053</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>23.56489651081102</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>23.77255891418641</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1074,19 +1074,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>23.98580529999812</v>
+        <v>24.4175412162368</v>
       </c>
       <c r="C36">
-        <v>23.19736917573234</v>
+        <v>22.59541748266219</v>
       </c>
       <c r="D36">
-        <v>23.54540436825439</v>
+        <v>23.3108496392941</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>23.73738312785737</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>23.92310478988733</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1094,19 +1094,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>24.07927090875933</v>
+        <v>24.56846454335337</v>
       </c>
       <c r="C37">
-        <v>23.19653760316186</v>
+        <v>22.69143997183246</v>
       </c>
       <c r="D37">
-        <v>23.64274744391966</v>
+        <v>23.41101520894389</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>23.91502763192417</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>24.07570444253854</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1114,19 +1114,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>24.17361799152349</v>
+        <v>24.7198464542393</v>
       </c>
       <c r="C38">
-        <v>23.19336855349335</v>
+        <v>22.7905554658001</v>
       </c>
       <c r="D38">
-        <v>23.74186854021092</v>
+        <v>23.51314293210639</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>24.09763899848975</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>24.23008693435505</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1134,19 +1134,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>24.26882695679855</v>
+        <v>24.87140520790091</v>
       </c>
       <c r="C39">
-        <v>23.18790992694782</v>
+        <v>22.89271637093943</v>
       </c>
       <c r="D39">
-        <v>23.8427488407513</v>
+        <v>23.61715605114129</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>24.28499984107145</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>24.38597254983813</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1154,19 +1154,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>24.36487723456803</v>
+        <v>25.02285464270873</v>
       </c>
       <c r="C40">
-        <v>23.18020920931702</v>
+        <v>22.99787008686022</v>
       </c>
       <c r="D40">
-        <v>23.94536889419239</v>
+        <v>23.72296892396099</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>24.47686209911473</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>24.54307234501489</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1174,19 +1174,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>24.46174708442276</v>
+        <v>25.17390391791417</v>
       </c>
       <c r="C41">
-        <v>23.1703132497758</v>
+        <v>23.10595828243714</v>
       </c>
       <c r="D41">
-        <v>24.04970839813479</v>
+        <v>23.8304856968928</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>24.67294282698124</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>24.70108772421853</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1194,19 +1194,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>24.55941336837454</v>
+        <v>25.32425724964715</v>
       </c>
       <c r="C42">
-        <v>23.15826798437546</v>
+        <v>23.21691606729996</v>
       </c>
       <c r="D42">
-        <v>24.15574592147443</v>
+        <v>23.93959865711116</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>24.87292009856825</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>24.85970993318426</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1214,19 +1214,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>24.65785128065994</v>
+        <v>25.47361363420115</v>
       </c>
       <c r="C43">
-        <v>23.14411808887315</v>
+        <v>23.33067104060633</v>
       </c>
       <c r="D43">
-        <v>24.26345854662285</v>
+        <v>24.05018626550627</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>25.07642758806041</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>25.01861956370236</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1234,19 +1234,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>24.75703402491364</v>
+        <v>25.62166654340934</v>
       </c>
       <c r="C44">
-        <v>23.12790653888485</v>
+        <v>23.44714226919272</v>
       </c>
       <c r="D44">
-        <v>24.37282140742022</v>
+        <v>24.16211097881614</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>25.28304939707107</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>25.1774860721736</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1254,19 +1254,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>24.85693242659259</v>
+        <v>25.76810365109871</v>
       </c>
       <c r="C45">
-        <v>23.10967404714764</v>
+        <v>23.5662390400464</v>
       </c>
       <c r="D45">
-        <v>24.48380709125638</v>
+        <v>24.27521646789807</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>25.49231508505311</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>25.33596721223769</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1274,19 +1274,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>24.9575144653146</v>
+        <v>25.91260654183668</v>
       </c>
       <c r="C46">
-        <v>23.08945833769514</v>
+        <v>23.68785950543272</v>
       </c>
       <c r="D46">
-        <v>24.59638486454975</v>
+        <v>24.3893247131392</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>25.70369374508217</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>25.49370849337663</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1294,19 +1294,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>25.05874470763541</v>
+        <v>26.05485037737154</v>
       </c>
       <c r="C47">
-        <v>23.06729320121327</v>
+        <v>23.8118891321326</v>
       </c>
       <c r="D47">
-        <v>24.71051966871484</v>
+        <v>24.50423265198055</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>25.91658884743407</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>25.65034265191161</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1314,19 +1314,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>25.16058361535613</v>
+        <v>26.19450358887175</v>
       </c>
       <c r="C48">
-        <v>23.0432072568113</v>
+        <v>23.9381989151261</v>
       </c>
       <c r="D48">
-        <v>24.8261708187169</v>
+        <v>24.61970861353817</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>26.13033340437665</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>25.8054890433771</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1334,19 +1334,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>25.26298669735067</v>
+        <v>26.33122757672923</v>
       </c>
       <c r="C49">
-        <v>23.01722231945741</v>
+        <v>24.0666434425569</v>
       </c>
       <c r="D49">
-        <v>24.94329031743538</v>
+        <v>24.73548797860316</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>26.34418506369323</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>25.95875309861767</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1354,19 +1354,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>25.36590346366869</v>
+        <v>26.4646764198863</v>
       </c>
       <c r="C50">
-        <v>22.98935123928998</v>
+        <v>24.19705852272063</v>
       </c>
       <c r="D50">
-        <v>25.06182067596749</v>
+        <v>24.85126882032752</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>26.55732350549535</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>26.10972576820064</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1374,19 +1374,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>25.46927612842908</v>
+        <v>26.59449663053026</v>
       </c>
       <c r="C51">
-        <v>22.95959503862677</v>
+        <v>24.32925859553831</v>
       </c>
       <c r="D51">
-        <v>25.18169210242686</v>
+        <v>24.96670713833615</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>26.76884876617891</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>26.25798296721176</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1394,19 +1394,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>25.57303799185611</v>
+        <v>26.72032693964781</v>
       </c>
       <c r="C52">
-        <v>22.92793912772121</v>
+        <v>24.46303375845318</v>
       </c>
       <c r="D52">
-        <v>25.30281888985646</v>
+        <v>25.08141219314876</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>26.97778135915472</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>26.40308509598092</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1414,19 +1414,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>25.69487880887761</v>
+        <v>26.86053642388252</v>
       </c>
       <c r="C53">
-        <v>22.95043707927441</v>
+        <v>24.61632541264469</v>
       </c>
       <c r="D53">
-        <v>25.44259228903434</v>
+        <v>25.22070149565443</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>27.20819253022687</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>26.56400847348993</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1434,19 +1434,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>25.85205912318455</v>
+        <v>27.031518428383</v>
       </c>
       <c r="C54">
-        <v>23.08110424595478</v>
+        <v>24.80648723259449</v>
       </c>
       <c r="D54">
-        <v>25.61805985464502</v>
+        <v>25.40831488530626</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>27.48147409828618</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>26.75778345933738</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1454,19 +1454,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>26.04382873867321</v>
+        <v>27.22991743611279</v>
       </c>
       <c r="C55">
-        <v>23.31708432483654</v>
+        <v>25.03230007107859</v>
       </c>
       <c r="D55">
-        <v>25.82853571142434</v>
+        <v>25.64120915446263</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>27.79224919952483</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>26.9809739372918</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1474,19 +1474,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>26.26937916041754</v>
+        <v>27.45235269946338</v>
       </c>
       <c r="C56">
-        <v>23.65508199834624</v>
+        <v>25.29237794781733</v>
       </c>
       <c r="D56">
-        <v>26.07321190879493</v>
+        <v>25.91596900918207</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>28.13474723421541</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>27.2300570209199</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1494,19 +1494,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>26.52781974102351</v>
+        <v>27.69541271547624</v>
       </c>
       <c r="C57">
-        <v>24.09085108948468</v>
+        <v>25.58514178251015</v>
       </c>
       <c r="D57">
-        <v>26.35111487788711</v>
+        <v>26.22875819150081</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>28.50284699606716</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>27.50141885913464</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1514,19 +1514,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>26.81814752414683</v>
+        <v>27.95565447854935</v>
       </c>
       <c r="C58">
-        <v>24.61874818967311</v>
+        <v>25.9087867287992</v>
       </c>
       <c r="D58">
-        <v>26.66105116515327</v>
+        <v>26.57528599102878</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>28.89015113151754</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>27.79135393377009</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1534,19 +1534,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>27.13920862864337</v>
+        <v>28.22960609585729</v>
       </c>
       <c r="C59">
-        <v>25.23124452888848</v>
+        <v>26.26124586576146</v>
       </c>
       <c r="D59">
-        <v>27.00154091126235</v>
+        <v>26.95079102415857</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>29.2900770357803</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>28.09606730420249</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1554,19 +1554,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>27.4896484142459</v>
+        <v>28.51377321671879</v>
       </c>
       <c r="C60">
-        <v>25.91840115257938</v>
+        <v>26.64015247007894</v>
       </c>
       <c r="D60">
-        <v>27.3707382395959</v>
+        <v>27.35004818648558</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>29.69597750587765</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>28.41168088989127</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1574,19 +1574,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>27.86784700127267</v>
+        <v>28.80464995219215</v>
       </c>
       <c r="C61">
-        <v>26.6673718274383</v>
+        <v>27.04279147766182</v>
       </c>
       <c r="D61">
-        <v>27.76633914039812</v>
+        <v>27.76740492084271</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>30.10127782806298</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>28.73424459605668</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1594,19 +1594,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>28.27183611097573</v>
+        <v>29.09873530634641</v>
       </c>
       <c r="C62">
-        <v>27.46205958936421</v>
+        <v>27.46605587897522</v>
       </c>
       <c r="D62">
-        <v>28.18547990179178</v>
+        <v>28.19685075350498</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>30.49962754413352</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>29.05975358580563</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1614,19 +1614,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>28.69919295712906</v>
+        <v>29.39255636351573</v>
       </c>
       <c r="C63">
-        <v>28.28311034199967</v>
+        <v>27.90639744683322</v>
       </c>
       <c r="D63">
-        <v>28.62463294224054</v>
+        <v>28.63212443424666</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>30.88506163946</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>29.38417337276323</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1634,19 +1634,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>29.14690767973185</v>
+        <v>29.68269956056327</v>
       </c>
       <c r="C64">
-        <v>29.10844884992998</v>
+        <v>28.35978021895104</v>
       </c>
       <c r="D64">
-        <v>29.07951215035481</v>
+        <v>29.06685829400456</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>31.25215756754425</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>29.70347468533068</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1654,19 +1654,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>29.61122370450308</v>
+        <v>29.96585137315738</v>
       </c>
       <c r="C65">
-        <v>29.91450224256716</v>
+        <v>28.82164338356429</v>
       </c>
       <c r="D65">
-        <v>29.54500617770714</v>
+        <v>29.49475499242417</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>31.59617882691553</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>30.013680285558</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1674,19 +1674,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>30.08745724168192</v>
+        <v>30.23884931046338</v>
       </c>
       <c r="C66">
-        <v>30.67808137244621</v>
+        <v>29.28688059011633</v>
       </c>
       <c r="D66">
-        <v>30.01516435679657</v>
+        <v>29.90978647210919</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>31.91319340645171</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>30.31092591417325</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1694,19 +1694,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>30.56981524366609</v>
+        <v>30.49874318995731</v>
       </c>
       <c r="C67">
-        <v>31.37863001390529</v>
+        <v>29.74984967592317</v>
       </c>
       <c r="D67">
-        <v>30.48326365489636</v>
+        <v>30.30639960415533</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>32.20015704049446</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>30.59153706056516</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1714,19 +1714,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>31.0512523916357</v>
+        <v>30.74286504062322</v>
       </c>
       <c r="C68">
-        <v>32.00032257077943</v>
+        <v>30.20442927079713</v>
       </c>
       <c r="D68">
-        <v>30.94198288315438</v>
+        <v>30.67970953418571</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>32.45495441323423</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>30.85212200600958</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1734,19 +1734,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>31.52343575317198</v>
+        <v>30.96890352689458</v>
       </c>
       <c r="C69">
-        <v>32.53344679902877</v>
+        <v>30.64414100433642</v>
       </c>
       <c r="D69">
-        <v>31.38369869585201</v>
+        <v>31.0256609504941</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>32.67639503338561</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>31.08967826880819</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1754,19 +1754,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>31.97691143189802</v>
+        <v>31.17497595599608</v>
       </c>
       <c r="C70">
-        <v>32.97471946203238</v>
+        <v>31.06235500606887</v>
       </c>
       <c r="D70">
-        <v>31.80089514919239</v>
+        <v>31.34114031651211</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>32.86416505996968</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>31.30171103500242</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1774,19 +1774,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>32.40156950464339</v>
+        <v>31.35968833229317</v>
       </c>
       <c r="C71">
-        <v>33.32655302192074</v>
+        <v>31.45258720647042</v>
       </c>
       <c r="D71">
-        <v>32.18664780257713</v>
+        <v>31.62402792783612</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>33.01874071802133</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>31.48634530213765</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1794,19 +1794,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>32.7874523631441</v>
+        <v>31.52217318334112</v>
       </c>
       <c r="C72">
-        <v>33.59561674994524</v>
+        <v>31.80887838738941</v>
       </c>
       <c r="D72">
-        <v>32.53511356211062</v>
+        <v>31.87318699394735</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>33.14127209338609</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>31.6424218056246</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1814,19 +1814,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>33.1258315832012</v>
+        <v>31.66209598553167</v>
       </c>
       <c r="C73">
-        <v>33.79116288128654</v>
+        <v>32.12621729219625</v>
       </c>
       <c r="D73">
-        <v>32.84194147265593</v>
+        <v>32.08839495181434</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>33.23344850580673</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>31.76955623571891</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1834,19 +1834,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>33.41032258853719</v>
+        <v>31.7796264077607</v>
       </c>
       <c r="C74">
-        <v>33.92351158954262</v>
+        <v>32.40094108115372</v>
       </c>
       <c r="D74">
-        <v>33.10452772775866</v>
+        <v>32.27022914850641</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>33.29735688960341</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>31.86814361146154</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1854,19 +1854,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>33.63770723405471</v>
+        <v>31.87537696557129</v>
       </c>
       <c r="C75">
-        <v>34.00290983508363</v>
+        <v>32.63102974427387</v>
       </c>
       <c r="D75">
-        <v>33.32207099395463</v>
+        <v>32.41992303782598</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>33.33534372510283</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>31.93929820572879</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1874,19 +1874,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>33.80818771181302</v>
+        <v>31.95031783697377</v>
       </c>
       <c r="C76">
-        <v>34.03880866556288</v>
+        <v>32.81622071046741</v>
       </c>
       <c r="D76">
-        <v>33.49543061907075</v>
+        <v>32.53920970964968</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>33.34988909586979</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>31.98473310720907</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1894,19 +1894,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>33.92500243259884</v>
+        <v>32.00568044789645</v>
       </c>
       <c r="C77">
-        <v>34.03949734285581</v>
+        <v>32.95791088733615</v>
       </c>
       <c r="D77">
-        <v>33.62683282284701</v>
+        <v>32.63016782018315</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>33.34349878483644</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>32.00659629096244</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1914,19 +1914,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>33.99357540772099</v>
+        <v>32.04286228041273</v>
       </c>
       <c r="C78">
-        <v>34.01199287503867</v>
+        <v>33.05886929673814</v>
       </c>
       <c r="D78">
-        <v>33.71949408055595</v>
+        <v>32.69508131095768</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>33.31861760340163</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>32.00729311265091</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1934,19 +1934,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>34.02050075729518</v>
+        <v>32.06334209470103</v>
       </c>
       <c r="C79">
-        <v>33.96208697557602</v>
+        <v>33.12283097886948</v>
       </c>
       <c r="D79">
-        <v>33.77723212328292</v>
+        <v>32.73632007821747</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>33.27756462071923</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>31.98931270412375</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1954,19 +1954,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>34.01263568466202</v>
+        <v>32.06861140822168</v>
       </c>
       <c r="C80">
-        <v>33.89447470894124</v>
+        <v>33.15406139468441</v>
       </c>
       <c r="D80">
-        <v>33.80411875918406</v>
+        <v>32.75624476732636</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>33.22248918305679</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>31.9550940047784</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1974,19 +1974,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>33.97645142842792</v>
+        <v>32.06012347588925</v>
       </c>
       <c r="C81">
-        <v>33.81291419857003</v>
+        <v>33.15696770182911</v>
       </c>
       <c r="D81">
-        <v>33.80420519773615</v>
+        <v>32.75713569649945</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>33.15534504614219</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>31.90692477439971</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1994,19 +1994,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>33.91766515090362</v>
+        <v>32.03925854345288</v>
       </c>
       <c r="C82">
-        <v>33.7203874975812</v>
+        <v>33.13580166070381</v>
       </c>
       <c r="D82">
-        <v>33.78132871926616</v>
+        <v>32.74114373956809</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>33.07787943986035</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>31.84688281541157</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2014,19 +2014,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>33.84109901595809</v>
+        <v>32.00730269426625</v>
       </c>
       <c r="C83">
-        <v>33.61924728419963</v>
+        <v>33.09446648232503</v>
       </c>
       <c r="D83">
-        <v>33.73899423215282</v>
+        <v>32.71025987458702</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>32.99163360318419</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>31.77680793426416</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2034,19 +2034,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>33.7506889471054</v>
+        <v>31.96543727159797</v>
       </c>
       <c r="C84">
-        <v>33.51134317435103</v>
+        <v>33.03641600325304</v>
       </c>
       <c r="D84">
-        <v>33.68031632728516</v>
+        <v>32.66629959068288</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>32.8979515184614</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>31.69829899912481</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2054,19 +2054,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>33.64957417210921</v>
+        <v>31.91473583184706</v>
       </c>
       <c r="C85">
-        <v>33.39812662285991</v>
+        <v>32.96462375082181</v>
       </c>
       <c r="D85">
-        <v>33.60800531670652</v>
+        <v>32.61089857461474</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>32.79799398319335</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>31.61272684883648</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2074,19 +2074,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>33.54019777816455</v>
+        <v>31.85602410707277</v>
       </c>
       <c r="C86">
-        <v>33.28072792815383</v>
+        <v>32.8815497109367</v>
       </c>
       <c r="D86">
-        <v>33.52431852632682</v>
+        <v>32.54539671669153</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>32.69273428300657</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>31.52122446698512</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2094,19 +2094,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>33.42446966661117</v>
+        <v>31.7900806519321</v>
       </c>
       <c r="C87">
-        <v>33.16003788234026</v>
+        <v>32.78925918716844</v>
       </c>
       <c r="D87">
-        <v>33.43119716234482</v>
+        <v>32.47102210050163</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>32.58300861281348</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>31.42475707005273</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2114,19 +2114,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>33.3038826678184</v>
+        <v>31.71774956795511</v>
       </c>
       <c r="C88">
-        <v>33.0367638970077</v>
+        <v>32.68950644763014</v>
       </c>
       <c r="D88">
-        <v>33.33033132322153</v>
+        <v>32.38898032963404</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>32.46955020606971</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>31.32416685072817</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2134,19 +2134,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>33.17957970826015</v>
+        <v>31.63977132031593</v>
       </c>
       <c r="C89">
-        <v>32.91146133904579</v>
+        <v>32.58371304987326</v>
       </c>
       <c r="D89">
-        <v>33.22311813058059</v>
+        <v>32.30031457939806</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>32.35297334156811</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>31.22015128836231</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2154,19 +2154,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>33.05243501220774</v>
+        <v>31.55679652645972</v>
       </c>
       <c r="C90">
-        <v>32.78456728045487</v>
+        <v>32.47302904498047</v>
       </c>
       <c r="D90">
-        <v>33.11070813359455</v>
+        <v>32.20592672846427</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>32.23379316030081</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>31.11328945488534</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2174,19 +2174,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>32.92311758321696</v>
+        <v>31.46939707677481</v>
       </c>
       <c r="C91">
-        <v>32.65642661725686</v>
+        <v>32.35838372605051</v>
       </c>
       <c r="D91">
-        <v>32.99404637880921</v>
+        <v>32.10659752630061</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>32.11244063655381</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>31.00406229579422</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2194,19 +2194,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>32.79214013911839</v>
+        <v>31.37807562348872</v>
       </c>
       <c r="C92">
-        <v>32.52731228143565</v>
+        <v>32.24052829461461</v>
       </c>
       <c r="D92">
-        <v>32.87390786560623</v>
+        <v>32.00299878167277</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>31.98927782912898</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>30.89286921323436</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2214,19 +2214,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>32.65989649821557</v>
+        <v>31.2832742328932</v>
       </c>
       <c r="C93">
-        <v>32.39744089299701</v>
+        <v>32.1200660981822</v>
       </c>
       <c r="D93">
-        <v>32.75092761507559</v>
+        <v>31.89570764678883</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>31.86460588224273</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>30.78004223182302</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2234,19 +2234,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>32.52668998895408</v>
+        <v>31.18538194536849</v>
       </c>
       <c r="C94">
-        <v>32.26698489685549</v>
+        <v>31.99748615469304</v>
       </c>
       <c r="D94">
-        <v>32.62562584333834</v>
+        <v>31.78522371092285</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>31.7386767615792</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>30.66585768652552</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2254,19 +2254,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>32.39275497712231</v>
+        <v>31.08474266287572</v>
       </c>
       <c r="C95">
-        <v>32.13608199055597</v>
+        <v>31.8731854194107</v>
       </c>
       <c r="D95">
-        <v>32.49842883878745</v>
+        <v>31.67197747091151</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>31.61170190706075</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>30.55054709870949</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2274,19 +2274,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>32.25827316129178</v>
+        <v>30.98165902773478</v>
       </c>
       <c r="C96">
-        <v>32.00484246351298</v>
+        <v>31.74748548628078</v>
       </c>
       <c r="D96">
-        <v>32.36968615844899</v>
+        <v>31.55633974686284</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>31.48385875561785</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>30.43430322566308</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2294,19 +2294,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>32.12338591226045</v>
+        <v>30.87639727129855</v>
       </c>
       <c r="C97">
-        <v>31.87335492292326</v>
+        <v>31.62064827146366</v>
       </c>
       <c r="D97">
-        <v>32.23968472332615</v>
+        <v>31.43863080264855</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>31.35529597454131</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>30.31728727451748</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2314,19 +2314,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>31.98820362806777</v>
+        <v>30.76919371571889</v>
       </c>
       <c r="C98">
-        <v>31.7416907733531</v>
+        <v>31.49288709092897</v>
       </c>
       <c r="D98">
-        <v>32.10866033266868</v>
+        <v>31.31912685769182</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>31.22613783901867</v>
       </c>
       <c r="F98">
-        <v>0</v>
+        <v>30.19963453488362</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2334,19 +2334,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>31.85281284118114</v>
+        <v>30.66025811349877</v>
       </c>
       <c r="C99">
-        <v>31.6099077301567</v>
+        <v>31.36437664501786</v>
       </c>
       <c r="D99">
-        <v>31.97680704862642</v>
+        <v>31.19806653060359</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>31.09648902376993</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>30.08145893853989</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2354,19 +2354,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>31.71728163117473</v>
+        <v>30.54977639209091</v>
       </c>
       <c r="C100">
-        <v>31.47805258286137</v>
+        <v>31.23526077081965</v>
       </c>
       <c r="D100">
-        <v>31.84428483479797</v>
+        <v>31.0756567342219</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>30.96643839859884</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>29.96285687154385</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2374,19 +2374,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>31.5816637587744</v>
+        <v>30.43791351857987</v>
       </c>
       <c r="C101">
-        <v>31.34616337479957</v>
+        <v>31.10565783318074</v>
       </c>
       <c r="D101">
-        <v>31.71122576949904</v>
+        <v>30.95207694440938</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>30.83606134212715</v>
       </c>
       <c r="F101">
-        <v>0</v>
+        <v>29.84390979473345</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2394,19 +2394,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>31.44600183321723</v>
+        <v>30.32481646849999</v>
       </c>
       <c r="C102">
-        <v>31.21427112722676</v>
+        <v>30.97566541463485</v>
       </c>
       <c r="D102">
-        <v>31.57773909920509</v>
+        <v>30.82748276431887</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>30.70542150480075</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>29.72468668165251</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2414,19 +2414,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>31.3103297470166</v>
+        <v>30.21061611543839</v>
       </c>
       <c r="C103">
-        <v>31.08240120705668</v>
+        <v>30.84536439373209</v>
       </c>
       <c r="D103">
-        <v>31.44391535007624</v>
+        <v>30.70200928907528</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>30.57457268214037</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>29.60524616112898</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2434,19 +2434,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>31.17467455401266</v>
+        <v>30.09542902998255</v>
       </c>
       <c r="C104">
-        <v>30.95057441502323</v>
+        <v>30.71482194685204</v>
       </c>
       <c r="D104">
-        <v>31.30982967544166</v>
+        <v>30.57577407062398</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>30.44356063024335</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>29.48563810445794</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2454,19 +2454,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>31.03905792305621</v>
+        <v>29.97935943076654</v>
       </c>
       <c r="C105">
-        <v>30.81880785387652</v>
+        <v>30.58409454561751</v>
       </c>
       <c r="D105">
-        <v>31.17554458385983</v>
+        <v>30.44887953015192</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>30.31242419840074</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>29.36590510810105</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2474,19 +2474,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>30.90349726729634</v>
+        <v>29.86250075715915</v>
       </c>
       <c r="C106">
-        <v>30.68711562316005</v>
+        <v>30.45322958823198</v>
       </c>
       <c r="D106">
-        <v>31.04111216500699</v>
+        <v>30.32141557418455</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>30.18119705189994</v>
       </c>
       <c r="F106">
-        <v>0</v>
+        <v>29.24608361593981</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2494,19 +2494,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>30.76800662460269</v>
+        <v>29.74493681092266</v>
       </c>
       <c r="C107">
-        <v>30.55550937674843</v>
+        <v>30.32226658863515</v>
       </c>
       <c r="D107">
-        <v>30.90657590829754</v>
+        <v>30.19346059297766</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>30.04990760201222</v>
       </c>
       <c r="F107">
-        <v>0</v>
+        <v>29.12620487802293</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2514,19 +2514,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>30.63259734610412</v>
+        <v>29.62674273909737</v>
       </c>
       <c r="C108">
-        <v>30.42399877126719</v>
+        <v>30.19123878939101</v>
       </c>
       <c r="D108">
-        <v>30.77197219097146</v>
+        <v>30.06508326066284</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>29.91858147757968</v>
       </c>
       <c r="F108">
-        <v>0</v>
+        <v>29.00629576624898</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2534,19 +2534,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>30.4972786370108</v>
+        <v>29.50798600242682</v>
       </c>
       <c r="C109">
-        <v>30.29259182819197</v>
+        <v>30.06017420566559</v>
       </c>
       <c r="D109">
-        <v>30.63733149762978</v>
+        <v>29.93634411987916</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>29.78723975266823</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>28.88637950038153</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2554,19 +2554,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>30.3620579826381</v>
+        <v>29.38872726782682</v>
       </c>
       <c r="C110">
-        <v>30.16129522671566</v>
+        <v>29.92909656080872</v>
       </c>
       <c r="D110">
-        <v>30.5026794215041</v>
+        <v>29.80729593477836</v>
       </c>
       <c r="E110">
-        <v>0</v>
+        <v>29.6559004796634</v>
       </c>
       <c r="F110">
-        <v>0</v>
+        <v>28.76647603144935</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2574,19 +2574,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>30.22694148518833</v>
+        <v>29.26902116451007</v>
       </c>
       <c r="C111">
-        <v>30.03011454136931</v>
+        <v>29.79802608195973</v>
       </c>
       <c r="D111">
-        <v>30.36803748780804</v>
+        <v>29.67798524147337</v>
       </c>
       <c r="E111">
-        <v>0</v>
+        <v>29.52457929331473</v>
       </c>
       <c r="F111">
-        <v>0</v>
+        <v>28.64660255048557</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2594,19 +2594,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>30.09193413093402</v>
+        <v>29.14891707532872</v>
       </c>
       <c r="C112">
-        <v>29.89905443532069</v>
+        <v>29.66698003016474</v>
       </c>
       <c r="D112">
-        <v>30.23342383190241</v>
+        <v>29.54845314816559</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>29.39328987473959</v>
       </c>
       <c r="F112">
-        <v>0</v>
+        <v>28.52677401453415</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2614,19 +2614,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>29.9570400028732</v>
+        <v>29.02845953051987</v>
       </c>
       <c r="C113">
-        <v>29.76811881802039</v>
+        <v>29.53597315943908</v>
       </c>
       <c r="D113">
-        <v>30.09885375918032</v>
+        <v>29.41873597575033</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>29.2620439082092</v>
       </c>
       <c r="F113">
-        <v>0</v>
+        <v>28.40700341987037</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2634,19 +2634,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>29.82226245054327</v>
+        <v>28.90768906072955</v>
       </c>
       <c r="C114">
-        <v>29.63731097410447</v>
+        <v>29.40501813838151</v>
       </c>
       <c r="D114">
-        <v>29.96434020794818</v>
+        <v>29.28886583624972</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>29.13085226146767</v>
       </c>
       <c r="F114">
-        <v>0</v>
+        <v>28.2873021433223</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2654,19 +2654,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>29.68760422607351</v>
+        <v>28.78664221644318</v>
       </c>
       <c r="C115">
-        <v>29.50663366905837</v>
+        <v>29.27412577380248</v>
       </c>
       <c r="D115">
-        <v>29.82989413284382</v>
+        <v>29.15887129444332</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>28.99972408762311</v>
       </c>
       <c r="F115">
-        <v>0</v>
+        <v>28.16768016104481</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2674,19 +2674,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>29.55306759352047</v>
+        <v>28.66535226535497</v>
       </c>
       <c r="C116">
-        <v>29.37608923604664</v>
+        <v>29.14330538483061</v>
       </c>
       <c r="D116">
-        <v>29.695524823051</v>
+        <v>29.02877763712473</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>28.86866759078047</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>28.04814614142634</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2694,19 +2694,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>29.41865441701029</v>
+        <v>28.54384934281741</v>
       </c>
       <c r="C117">
-        <v>29.2456796474377</v>
+        <v>29.01256501712736</v>
       </c>
       <c r="D117">
-        <v>29.56124016687427</v>
+        <v>28.89860731712694</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>28.73768951787703</v>
       </c>
       <c r="F117">
-        <v>0</v>
+        <v>27.9287076694556</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2714,19 +2714,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>29.28436623201326</v>
+        <v>28.42216074715301</v>
       </c>
       <c r="C118">
-        <v>29.1154065738618</v>
+        <v>28.88191165495734</v>
       </c>
       <c r="D118">
-        <v>29.42704687212992</v>
+        <v>28.76838034361034</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>28.60679589355252</v>
       </c>
       <c r="F118">
-        <v>0</v>
+        <v>27.80937138940324</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2734,19 +2734,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>29.15020430325083</v>
+        <v>28.30031139910231</v>
       </c>
       <c r="C119">
-        <v>28.98527143308987</v>
+        <v>28.75135135771229</v>
       </c>
       <c r="D119">
-        <v>29.29295065005732</v>
+        <v>28.63811456562199</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>28.47599201288678</v>
       </c>
       <c r="F119">
-        <v>0</v>
+        <v>27.69014312722549</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2754,19 +2754,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>29.0161696715681</v>
+        <v>28.17832386316927</v>
       </c>
       <c r="C120">
-        <v>28.85527543057998</v>
+        <v>28.62088938300543</v>
       </c>
       <c r="D120">
-        <v>29.15895636907887</v>
+        <v>28.50782591509308</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>28.34528265722671</v>
       </c>
       <c r="F120">
-        <v>0</v>
+        <v>27.5710280201002</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2774,19 +2774,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>28.88226319239202</v>
+        <v>28.05621885665212</v>
       </c>
       <c r="C121">
-        <v>28.72541959318779</v>
+        <v>28.49053030972141</v>
       </c>
       <c r="D121">
-        <v>29.02506818358155</v>
+        <v>28.37752863922903</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>28.21467211049241</v>
       </c>
       <c r="F121">
-        <v>0</v>
+        <v>27.45203068525075</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2794,19 +2794,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>28.7484855670947</v>
+        <v>27.93401516958108</v>
       </c>
       <c r="C122">
-        <v>28.59570479725554</v>
+        <v>28.36027813395326</v>
       </c>
       <c r="D122">
-        <v>28.89128964197103</v>
+        <v>28.24723554013259</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>28.08416412725042</v>
       </c>
       <c r="F122">
-        <v>0</v>
+        <v>27.33315501652202</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2814,19 +2814,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>28.61483736873619</v>
+        <v>27.81173015343759</v>
       </c>
       <c r="C123">
-        <v>28.46613179206759</v>
+        <v>28.23013634076795</v>
       </c>
       <c r="D123">
-        <v>28.75762377748892</v>
+        <v>28.11695806328807</v>
       </c>
       <c r="E123">
-        <v>0</v>
+        <v>27.95376203522742</v>
       </c>
       <c r="F123">
-        <v>0</v>
+        <v>27.21440487271812</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2834,19 +2834,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>28.4813190632385</v>
+        <v>27.68937952302644</v>
       </c>
       <c r="C124">
-        <v>28.33670121947909</v>
+        <v>28.10010798555549</v>
       </c>
       <c r="D124">
-        <v>28.62407318466193</v>
+        <v>27.986706491719</v>
       </c>
       <c r="E124">
-        <v>0</v>
+        <v>27.82346873699833</v>
       </c>
       <c r="F124">
-        <v>0</v>
+        <v>27.09578317319064</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2854,19 +2854,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>28.34793102684782</v>
+        <v>27.56697784593389</v>
       </c>
       <c r="C125">
-        <v>28.20741363037621</v>
+        <v>27.97019576182341</v>
       </c>
       <c r="D125">
-        <v>28.49064008391537</v>
+        <v>27.85649008787861</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>27.69328682771931</v>
       </c>
       <c r="F125">
-        <v>0</v>
+        <v>26.97729302616289</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2874,19 +2874,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>28.21467356057221</v>
+        <v>27.44453832246742</v>
       </c>
       <c r="C126">
-        <v>28.07826949850778</v>
+        <v>27.84040202795032</v>
       </c>
       <c r="D126">
-        <v>28.35732637593908</v>
+        <v>27.72631718188943</v>
       </c>
       <c r="E126">
-        <v>0</v>
+        <v>27.56321863210202</v>
       </c>
       <c r="F126">
-        <v>0</v>
+        <v>26.85893695522038</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2894,19 +2894,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>28.081546902146</v>
+        <v>27.32207317765269</v>
       </c>
       <c r="C127">
-        <v>27.9492692321321</v>
+        <v>27.71072891278231</v>
       </c>
       <c r="D127">
-        <v>28.22413368785489</v>
+        <v>27.59619528505633</v>
       </c>
       <c r="E127">
-        <v>0</v>
+        <v>27.43326619479654</v>
       </c>
       <c r="F127">
-        <v>0</v>
+        <v>26.74071718048997</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2914,19 +2914,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>27.94855123597251</v>
+        <v>27.19959355359427</v>
       </c>
       <c r="C128">
-        <v>27.82041318384324</v>
+        <v>27.58117823469596</v>
       </c>
       <c r="D128">
-        <v>28.09106341233847</v>
+        <v>27.46613118997929</v>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>27.30343141167795</v>
       </c>
       <c r="F128">
-        <v>0</v>
+        <v>26.62263584188165</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2934,19 +2934,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>27.81568670140737</v>
+        <v>27.07710974128974</v>
       </c>
       <c r="C129">
-        <v>27.69170165887798</v>
+        <v>27.45175167680085</v>
       </c>
       <c r="D129">
-        <v>27.95811674079744</v>
+        <v>27.3361310342395</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>27.17371593247133</v>
       </c>
       <c r="F129">
-        <v>0</v>
+        <v>26.504694682728</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2954,19 +2954,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>27.68295339967109</v>
+        <v>26.95463118976172</v>
       </c>
       <c r="C130">
-        <v>27.56313492215174</v>
+        <v>27.32245064900039</v>
       </c>
       <c r="D130">
-        <v>27.82529469162192</v>
+        <v>27.20620036919678</v>
       </c>
       <c r="E130">
-        <v>0</v>
+        <v>27.04412125926171</v>
       </c>
       <c r="F130">
-        <v>0</v>
+        <v>26.3868953881891</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2974,19 +2974,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>27.55035139963494</v>
+        <v>26.8321666098075</v>
       </c>
       <c r="C131">
-        <v>27.43471320422967</v>
+        <v>27.19327645960611</v>
       </c>
       <c r="D131">
-        <v>27.69259813423135</v>
+        <v>27.07634422926912</v>
       </c>
       <c r="E131">
-        <v>0</v>
+        <v>26.9146488128048</v>
       </c>
       <c r="F131">
-        <v>0</v>
+        <v>26.26923941774212</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2994,19 +2994,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>27.41788074267342</v>
+        <v>26.70972404874962</v>
       </c>
       <c r="C132">
-        <v>27.30643670640342</v>
+        <v>27.06423022125841</v>
       </c>
       <c r="D132">
-        <v>27.56002780959892</v>
+        <v>26.94656717670924</v>
       </c>
       <c r="E132">
-        <v>0</v>
+        <v>26.78529973260545</v>
       </c>
       <c r="F132">
-        <v>0</v>
+        <v>26.15172812780059</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3014,19 +3014,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>27.28554144674361</v>
+        <v>26.58731090857022</v>
       </c>
       <c r="C133">
-        <v>27.17830560501601</v>
+        <v>26.93531294845165</v>
       </c>
       <c r="D133">
-        <v>27.42758434778823</v>
+        <v>26.81687334223011</v>
       </c>
       <c r="E133">
-        <v>0</v>
+        <v>26.65607521229103</v>
       </c>
       <c r="F133">
-        <v>0</v>
+        <v>26.03436273103937</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3034,19 +3034,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>27.15333350982048</v>
+        <v>26.46493406600527</v>
       </c>
       <c r="C134">
-        <v>27.05032005515267</v>
+        <v>26.80652553194182</v>
       </c>
       <c r="D134">
-        <v>27.29526828295823</v>
+        <v>26.6872665193951</v>
       </c>
       <c r="E134">
-        <v>0</v>
+        <v>26.52697616403039</v>
       </c>
       <c r="F134">
-        <v>0</v>
+        <v>25.91714435696588</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3054,19 +3054,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>27.02125691279736</v>
+        <v>26.34259983370147</v>
       </c>
       <c r="C135">
-        <v>26.92248019379682</v>
+        <v>26.67786877550129</v>
       </c>
       <c r="D135">
-        <v>27.16308006622562</v>
+        <v>26.55775009150024</v>
       </c>
       <c r="E135">
-        <v>0</v>
+        <v>26.39800351450011</v>
       </c>
       <c r="F135">
-        <v>0</v>
+        <v>25.80007404506425</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3074,19 +3074,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>26.88931162193978</v>
+        <v>26.22031409535349</v>
       </c>
       <c r="C136">
-        <v>26.79478614253353</v>
+        <v>26.54934339276815</v>
       </c>
       <c r="D136">
-        <v>27.03102007670423</v>
+        <v>26.42832726130038</v>
       </c>
       <c r="E136">
-        <v>0</v>
+        <v>26.26915804159873</v>
       </c>
       <c r="F136">
-        <v>0</v>
+        <v>25.68315271645044</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3094,19 +3094,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>26.75749759096516</v>
+        <v>26.09808226064648</v>
       </c>
       <c r="C137">
-        <v>26.6672380098698</v>
+        <v>26.42095003395291</v>
       </c>
       <c r="D137">
-        <v>26.89908863099382</v>
+        <v>26.29900081303708</v>
       </c>
       <c r="E137">
-        <v>0</v>
+        <v>26.14044046165474</v>
       </c>
       <c r="F137">
-        <v>0</v>
+        <v>25.56638127586417</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3114,19 +3114,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>26.62581476280909</v>
+        <v>25.97590937280466</v>
       </c>
       <c r="C138">
-        <v>26.53983589322959</v>
+        <v>26.29268926840125</v>
       </c>
       <c r="D138">
-        <v>26.76728599134855</v>
+        <v>26.16977341755933</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>26.01185142524619</v>
       </c>
       <c r="F138">
-        <v>0</v>
+        <v>25.44976049056388</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3134,19 +3134,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>26.49426307112851</v>
+        <v>25.85380008611285</v>
       </c>
       <c r="C139">
-        <v>26.41257988067257</v>
+        <v>26.16456162202721</v>
       </c>
       <c r="D139">
-        <v>26.63561237271776</v>
+        <v>26.04064744630863</v>
       </c>
       <c r="E139">
-        <v>0</v>
+        <v>25.88339152508924</v>
       </c>
       <c r="F139">
-        <v>0</v>
+        <v>25.33329112274076</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3154,19 +3154,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>26.3628424415836</v>
+        <v>25.73175874157896</v>
       </c>
       <c r="C140">
-        <v>26.2854700523776</v>
+        <v>26.03656755082936</v>
       </c>
       <c r="D140">
-        <v>26.50406794882293</v>
+        <v>25.91162506751598</v>
       </c>
       <c r="E140">
-        <v>0</v>
+        <v>25.75506129843282</v>
       </c>
       <c r="F140">
-        <v>0</v>
+        <v>25.21697384613601</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3174,19 +3174,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>26.23155279293242</v>
+        <v>25.60978935682217</v>
       </c>
       <c r="C141">
-        <v>26.15850648192569</v>
+        <v>25.90870747581103</v>
       </c>
       <c r="D141">
-        <v>26.37265285741073</v>
+        <v>25.78270829579887</v>
       </c>
       <c r="E141">
-        <v>0</v>
+        <v>25.6268612400192</v>
       </c>
       <c r="F141">
-        <v>0</v>
+        <v>25.10080929689596</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3194,19 +3194,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>26.10039403796785</v>
+        <v>25.48789568229236</v>
       </c>
       <c r="C142">
-        <v>26.03168923741185</v>
+        <v>25.78098176612555</v>
       </c>
       <c r="D142">
-        <v>26.24136720479945</v>
+        <v>25.65389893211293</v>
       </c>
       <c r="E142">
-        <v>0</v>
+        <v>25.49879180831391</v>
       </c>
       <c r="F142">
-        <v>0</v>
+        <v>24.98479806806544</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3214,19 +3214,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>25.96936608432091</v>
+        <v>25.36608119739829</v>
       </c>
       <c r="C143">
-        <v>25.90501838241041</v>
+        <v>25.65339075904367</v>
       </c>
       <c r="D143">
-        <v>26.11021106981881</v>
+        <v>25.52519866247814</v>
       </c>
       <c r="E143">
-        <v>0</v>
+        <v>25.37085340373497</v>
       </c>
       <c r="F143">
-        <v>0</v>
+        <v>24.86894071359163</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3234,19 +3234,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>25.83846883515066</v>
+        <v>25.24434915112215</v>
       </c>
       <c r="C144">
-        <v>25.77849397681519</v>
+        <v>25.52593475566818</v>
       </c>
       <c r="D144">
-        <v>25.97918450722932</v>
+        <v>25.39660900797877</v>
       </c>
       <c r="E144">
-        <v>0</v>
+        <v>25.24304641372376</v>
       </c>
       <c r="F144">
-        <v>0</v>
+        <v>24.75323775811787</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3254,19 +3254,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>25.70770218973765</v>
+        <v>25.12270256683641</v>
       </c>
       <c r="C145">
-        <v>25.65211607757216</v>
+        <v>25.39861403017344</v>
       </c>
       <c r="D145">
-        <v>25.84828755069255</v>
+        <v>25.26813138852454</v>
       </c>
       <c r="E145">
-        <v>0</v>
+        <v>25.11537116941698</v>
       </c>
       <c r="F145">
-        <v>0</v>
+        <v>24.63768969243681</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3274,19 +3274,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>25.57706604399544</v>
+        <v>25.0011442665633</v>
       </c>
       <c r="C146">
-        <v>25.52588473931988</v>
+        <v>25.27142882837614</v>
       </c>
       <c r="D146">
-        <v>25.71752021535535</v>
+        <v>25.13976708669955</v>
       </c>
       <c r="E146">
-        <v>0</v>
+        <v>24.98782798629466</v>
       </c>
       <c r="F146">
-        <v>0</v>
+        <v>24.52229699266346</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3294,19 +3294,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>25.44656029091212</v>
+        <v>24.87967688633634</v>
       </c>
       <c r="C147">
-        <v>25.39980001495074</v>
+        <v>25.14437937601241</v>
       </c>
       <c r="D147">
-        <v>25.58688250010064</v>
+        <v>25.01151730850592</v>
       </c>
       <c r="E147">
-        <v>0</v>
+        <v>24.86041714568089</v>
       </c>
       <c r="F147">
-        <v>0</v>
+        <v>24.40706009692025</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3314,19 +3314,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>25.31618482093211</v>
+        <v>24.75830287305219</v>
       </c>
       <c r="C148">
-        <v>25.27386195610392</v>
+        <v>25.01746587388396</v>
       </c>
       <c r="D148">
-        <v>25.45637438951033</v>
+        <v>24.88338314648261</v>
       </c>
       <c r="E148">
-        <v>0</v>
+        <v>24.73313890553498</v>
       </c>
       <c r="F148">
-        <v>0</v>
+        <v>24.29197943800032</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3334,19 +3334,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>25.18593952228669</v>
+        <v>24.63702453347096</v>
       </c>
       <c r="C149">
-        <v>25.14807061359974</v>
+        <v>24.89068850803919</v>
       </c>
       <c r="D149">
-        <v>25.32599585557897</v>
+        <v>24.75536561469739</v>
       </c>
       <c r="E149">
-        <v>0</v>
+        <v>24.60599350273116</v>
       </c>
       <c r="F149">
-        <v>0</v>
+        <v>24.17705542236421</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3354,19 +3354,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>25.05582428128075</v>
+        <v>24.51584403999933</v>
       </c>
       <c r="C150">
-        <v>25.02242603782327</v>
+        <v>24.764047443481</v>
       </c>
       <c r="D150">
-        <v>25.19574685921195</v>
+        <v>24.62746565136127</v>
       </c>
       <c r="E150">
-        <v>0</v>
+        <v>24.47898115546405</v>
       </c>
       <c r="F150">
-        <v>0</v>
+        <v>24.06228843921317</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3374,19 +3374,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>24.92583898254198</v>
+        <v>24.39476336155508</v>
       </c>
       <c r="C151">
-        <v>24.89692827906428</v>
+        <v>24.63754283312702</v>
       </c>
       <c r="D151">
-        <v>25.06562735153629</v>
+        <v>24.49968410944068</v>
       </c>
       <c r="E151">
-        <v>0</v>
+        <v>24.35210206373194</v>
       </c>
       <c r="F151">
-        <v>0</v>
+        <v>23.94767886789079</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3394,19 +3394,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>24.79598350923747</v>
+        <v>24.27378442721076</v>
       </c>
       <c r="C152">
-        <v>24.77157738781953</v>
+        <v>24.5111748138276</v>
       </c>
       <c r="D152">
-        <v>24.93563727504924</v>
+        <v>24.37202178994255</v>
       </c>
       <c r="E152">
-        <v>0</v>
+        <v>24.22535641206676</v>
       </c>
       <c r="F152">
-        <v>0</v>
+        <v>23.83322706946421</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3414,19 +3414,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>24.66625774326262</v>
+        <v>24.15290904110358</v>
       </c>
       <c r="C153">
-        <v>24.6463734150624</v>
+        <v>24.38494351191533</v>
       </c>
       <c r="D153">
-        <v>24.80577656462562</v>
+        <v>24.24447941839454</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>24.09874437268876</v>
       </c>
       <c r="F153">
-        <v>0</v>
+        <v>23.71893339787973</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3434,19 +3434,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>24.53666156540582</v>
+        <v>24.03213880442747</v>
       </c>
       <c r="C154">
-        <v>24.5213164124844</v>
+        <v>24.25884904179251</v>
       </c>
       <c r="D154">
-        <v>24.67604514840236</v>
+        <v>24.11705767575219</v>
       </c>
       <c r="E154">
-        <v>0</v>
+        <v>23.97226610013008</v>
       </c>
       <c r="F154">
-        <v>0</v>
+        <v>23.60479819478108</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3454,19 +3454,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>24.40719485549248</v>
+        <v>23.91147533519452</v>
       </c>
       <c r="C155">
-        <v>24.39640643271241</v>
+        <v>24.13289150922682</v>
       </c>
       <c r="D155">
-        <v>24.546442948556</v>
+        <v>23.98975718251005</v>
       </c>
       <c r="E155">
-        <v>0</v>
+        <v>23.84592174204744</v>
       </c>
       <c r="F155">
-        <v>0</v>
+        <v>23.49082179540161</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3474,19 +3474,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>24.27785749251098</v>
+        <v>23.79092012718416</v>
       </c>
       <c r="C156">
-        <v>24.27164352950485</v>
+        <v>24.00707101046876</v>
       </c>
       <c r="D156">
-        <v>24.41696988198692</v>
+        <v>23.86257851981532</v>
       </c>
       <c r="E156">
-        <v>0</v>
+        <v>23.71971142998523</v>
       </c>
       <c r="F156">
-        <v>0</v>
+        <v>23.37700452631188</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3494,19 +3494,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>24.148649354723</v>
+        <v>23.67047451731391</v>
       </c>
       <c r="C157">
-        <v>24.14702775792975</v>
+        <v>23.88138763523389</v>
       </c>
       <c r="D157">
-        <v>24.28762586092187</v>
+        <v>23.73552222006204</v>
       </c>
       <c r="E157">
-        <v>0</v>
+        <v>23.59363528882071</v>
       </c>
       <c r="F157">
-        <v>0</v>
+        <v>23.26334670894196</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3514,19 +3514,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>24.01957031976044</v>
+        <v>23.55013984748871</v>
       </c>
       <c r="C158">
-        <v>24.02255917452744</v>
+        <v>23.75584146521699</v>
       </c>
       <c r="D158">
-        <v>24.15841079344543</v>
+        <v>23.60858877956224</v>
       </c>
       <c r="E158">
-        <v>0</v>
+        <v>23.46769343237784</v>
       </c>
       <c r="F158">
-        <v>0</v>
+        <v>23.149848659695</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3534,19 +3534,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>23.89062026471044</v>
+        <v>23.42991735510576</v>
       </c>
       <c r="C159">
-        <v>23.89823783745972</v>
+        <v>23.63043257721431</v>
       </c>
       <c r="D159">
-        <v>24.02932458396901</v>
+        <v>23.48177865756498</v>
       </c>
       <c r="E159">
-        <v>0</v>
+        <v>23.34188596712154</v>
       </c>
       <c r="F159">
-        <v>0</v>
+        <v>23.036510688844</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3554,19 +3554,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>23.76179906619024</v>
+        <v>23.3098081791579</v>
       </c>
       <c r="C160">
-        <v>23.77406380664791</v>
+        <v>23.50516104150604</v>
       </c>
       <c r="D160">
-        <v>23.90036713364529</v>
+        <v>23.35509227730393</v>
       </c>
       <c r="E160">
-        <v>0</v>
+        <v>23.21621299184983</v>
       </c>
       <c r="F160">
-        <v>0</v>
+        <v>22.92333310549677</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3574,19 +3574,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>23.63310660041312</v>
+        <v>23.18981343187625</v>
       </c>
       <c r="C161">
-        <v>23.6500371439014</v>
+        <v>23.38002692449695</v>
       </c>
       <c r="D161">
-        <v>23.77153834073471</v>
+        <v>23.22853003532609</v>
       </c>
       <c r="E161">
-        <v>0</v>
+        <v>23.09067459910473</v>
       </c>
       <c r="F161">
-        <v>0</v>
+        <v>22.81031621263572</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3594,19 +3594,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>23.50454274324652</v>
+        <v>23.06993415085681</v>
       </c>
       <c r="C162">
-        <v>23.52615791303857</v>
+        <v>23.25503028766388</v>
       </c>
       <c r="D162">
-        <v>23.64283810092997</v>
+        <v>23.10209229385906</v>
       </c>
       <c r="E162">
-        <v>0</v>
+        <v>22.96527087545854</v>
       </c>
       <c r="F162">
-        <v>0</v>
+        <v>22.6974603132636</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3614,19 +3614,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>23.37610737026337</v>
+        <v>22.95017131062838</v>
       </c>
       <c r="C163">
-        <v>23.40242618000165</v>
+        <v>23.13017118937237</v>
       </c>
       <c r="D163">
-        <v>23.51426630764349</v>
+        <v>22.97577939412054</v>
       </c>
       <c r="E163">
-        <v>0</v>
+        <v>22.8400019019641</v>
       </c>
       <c r="F163">
-        <v>0</v>
+        <v>22.58476570677463</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3634,19 +3634,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>23.24780035678747</v>
+        <v>22.83052585012611</v>
       </c>
       <c r="C164">
-        <v>23.27884201296737</v>
+        <v>23.00544968437026</v>
       </c>
       <c r="D164">
-        <v>23.38582285226245</v>
+        <v>22.84959164788892</v>
       </c>
       <c r="E164">
-        <v>0</v>
+        <v>22.7148677556523</v>
       </c>
       <c r="F164">
-        <v>0</v>
+        <v>22.47223269188681</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3654,19 +3654,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>23.11962157793363</v>
+        <v>22.71099865137888</v>
       </c>
       <c r="C165">
-        <v>23.15540548245509</v>
+        <v>22.88086582507352</v>
       </c>
       <c r="D165">
-        <v>23.25750762437513</v>
+        <v>22.72352934831475</v>
       </c>
       <c r="E165">
-        <v>0</v>
+        <v>22.58986850803556</v>
       </c>
       <c r="F165">
-        <v>0</v>
+        <v>22.35986156629961</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3674,19 +3674,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>22.99157090864336</v>
+        <v>22.59159054851448</v>
       </c>
       <c r="C166">
-        <v>23.03211666143439</v>
+        <v>22.7564196611874</v>
       </c>
       <c r="D166">
-        <v>23.1293205119721</v>
+        <v>22.59759276490711</v>
       </c>
       <c r="E166">
-        <v>0</v>
+        <v>22.46500422809984</v>
       </c>
       <c r="F166">
-        <v>0</v>
+        <v>22.24765262706676</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3694,19 +3694,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>22.86364822371645</v>
+        <v>22.47230234967025</v>
       </c>
       <c r="C167">
-        <v>22.90897562543331</v>
+        <v>22.63211124084838</v>
       </c>
       <c r="D167">
-        <v>23.00126140162511</v>
+        <v>22.47178214964673</v>
       </c>
       <c r="E167">
-        <v>0</v>
+        <v>22.34027498012898</v>
       </c>
       <c r="F167">
-        <v>0</v>
+        <v>22.13560617167018</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3714,19 +3714,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>22.73585339783885</v>
+        <v>22.35313481103972</v>
       </c>
       <c r="C168">
-        <v>22.78598245264678</v>
+        <v>22.50794061016815</v>
       </c>
       <c r="D168">
-        <v>22.87333017864634</v>
+        <v>22.34609773617495</v>
       </c>
       <c r="E168">
-        <v>0</v>
+        <v>22.21568082628064</v>
       </c>
       <c r="F168">
-        <v>0</v>
+        <v>22.02372249736554</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3734,19 +3734,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>22.60818630560768</v>
+        <v>22.23408865275427</v>
       </c>
       <c r="C169">
-        <v>22.66313722403833</v>
+        <v>22.38390781431145</v>
       </c>
       <c r="D169">
-        <v>22.74552672723028</v>
+        <v>22.22053974137974</v>
       </c>
       <c r="E169">
-        <v>0</v>
+        <v>22.09122182543711</v>
       </c>
       <c r="F169">
-        <v>0</v>
+        <v>21.91200190294273</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3754,19 +3754,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>22.4806468215535</v>
+        <v>22.115164575406</v>
       </c>
       <c r="C170">
-        <v>22.54044002341352</v>
+        <v>22.26001289706188</v>
       </c>
       <c r="D170">
-        <v>22.61785093058021</v>
+        <v>22.09510836815663</v>
       </c>
       <c r="E170">
-        <v>0</v>
+        <v>21.96689803450179</v>
       </c>
       <c r="F170">
-        <v>0</v>
+        <v>21.80044468728036</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3774,19 +3774,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>22.35323482015998</v>
+        <v>21.99636323324447</v>
       </c>
       <c r="C171">
-        <v>22.41789093742234</v>
+        <v>22.13625590172522</v>
       </c>
       <c r="D171">
-        <v>22.49030267102115</v>
+        <v>21.96980380361124</v>
       </c>
       <c r="E171">
-        <v>0</v>
+        <v>21.84270950823519</v>
       </c>
       <c r="F171">
-        <v>0</v>
+        <v>21.68905115143463</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3794,19 +3794,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>22.22595017588162</v>
+        <v>21.87768525556021</v>
       </c>
       <c r="C172">
-        <v>22.29549005545455</v>
+        <v>22.01263687083983</v>
       </c>
       <c r="D172">
-        <v>22.36288183010053</v>
+        <v>21.84462622394088</v>
       </c>
       <c r="E172">
-        <v>0</v>
+        <v>21.71865629979276</v>
       </c>
       <c r="F172">
-        <v>0</v>
+        <v>21.57782159761127</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3814,19 +3814,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>22.09879276315943</v>
+        <v>21.75913125185612</v>
       </c>
       <c r="C173">
-        <v>22.1732374694849</v>
+        <v>21.88915584686187</v>
       </c>
       <c r="D173">
-        <v>22.23558828867865</v>
+        <v>21.71957579116536</v>
       </c>
       <c r="E173">
-        <v>0</v>
+        <v>21.59473846079472</v>
       </c>
       <c r="F173">
-        <v>0</v>
+        <v>21.46675632983859</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3834,19 +3834,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>21.97176245643507</v>
+        <v>21.64070179574184</v>
       </c>
       <c r="C174">
-        <v>22.05113327403038</v>
+        <v>21.7658128720024</v>
       </c>
       <c r="D174">
-        <v>22.10842192700939</v>
+        <v>21.59465265815665</v>
       </c>
       <c r="E174">
-        <v>0</v>
+        <v>21.47095604150602</v>
       </c>
       <c r="F174">
-        <v>0</v>
+        <v>21.35585565450414</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3854,19 +3854,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>21.84485913016339</v>
+        <v>21.52239744292486</v>
       </c>
       <c r="C175">
-        <v>21.92917756629918</v>
+        <v>21.64260798872979</v>
       </c>
       <c r="D175">
-        <v>21.981382624812</v>
+        <v>21.46985696592103</v>
       </c>
       <c r="E175">
-        <v>0</v>
+        <v>21.34730909209304</v>
       </c>
       <c r="F175">
-        <v>0</v>
+        <v>21.24511987996509</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3874,19 +3874,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>21.71808265882374</v>
+        <v>21.40421872951139</v>
       </c>
       <c r="C176">
-        <v>21.80737044643185</v>
+        <v>21.51954123957225</v>
       </c>
       <c r="D176">
-        <v>21.85447026133588</v>
+        <v>21.34518884706736</v>
       </c>
       <c r="E176">
-        <v>0</v>
+        <v>21.2237976619233</v>
       </c>
       <c r="F176">
-        <v>0</v>
+        <v>21.13454931746226</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3894,19 +3894,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>21.59143291693008</v>
+        <v>21.28616616487188</v>
       </c>
       <c r="C177">
-        <v>21.68571201771524</v>
+        <v>21.39661266794682</v>
       </c>
       <c r="D177">
-        <v>21.72768471541882</v>
+        <v>21.22064842494165</v>
       </c>
       <c r="E177">
-        <v>0</v>
+        <v>21.100421798072</v>
       </c>
       <c r="F177">
-        <v>0</v>
+        <v>21.02414428067799</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3914,19 +3914,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>21.46490977904006</v>
+        <v>21.16824024537198</v>
       </c>
       <c r="C178">
-        <v>21.56420238673592</v>
+        <v>21.27382231788685</v>
       </c>
       <c r="D178">
-        <v>21.60102586553905</v>
+        <v>21.096235814804</v>
       </c>
       <c r="E178">
-        <v>0</v>
+        <v>20.97718155013543</v>
       </c>
       <c r="F178">
-        <v>0</v>
+        <v>20.91390508649872</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3934,19 +3934,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>21.33851311976314</v>
+        <v>21.05044145032587</v>
       </c>
       <c r="C179">
-        <v>21.44284166348827</v>
+        <v>21.15117023358772</v>
       </c>
       <c r="D179">
-        <v>21.47449358986181</v>
+        <v>20.97195112483922</v>
       </c>
       <c r="E179">
-        <v>0</v>
+        <v>20.85407696739523</v>
       </c>
       <c r="F179">
-        <v>0</v>
+        <v>20.80383205457522</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3954,19 +3954,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>21.21224281376796</v>
+        <v>20.93277023694967</v>
       </c>
       <c r="C180">
-        <v>21.32162996145857</v>
+        <v>21.02865646129393</v>
       </c>
       <c r="D180">
-        <v>21.34808776628163</v>
+        <v>20.84779445577846</v>
       </c>
       <c r="E180">
-        <v>0</v>
+        <v>20.73110809631047</v>
       </c>
       <c r="F180">
-        <v>0</v>
+        <v>20.69392550806405</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3974,19 +3974,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>21.0860987357889</v>
+        <v>20.81522705461773</v>
       </c>
       <c r="C181">
-        <v>21.20056739769818</v>
+        <v>20.90628104813069</v>
       </c>
       <c r="D181">
-        <v>21.22180827245994</v>
+        <v>20.72376590280249</v>
       </c>
       <c r="E181">
-        <v>0</v>
+        <v>20.60827498651393</v>
       </c>
       <c r="F181">
-        <v>0</v>
+        <v>20.5841857738561</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3994,19 +3994,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>20.96008076063206</v>
+        <v>20.69781233789508</v>
       </c>
       <c r="C182">
-        <v>21.07965409289254</v>
+        <v>20.78404404141575</v>
       </c>
       <c r="D182">
-        <v>21.09565498585928</v>
+        <v>20.59986555443586</v>
       </c>
       <c r="E182">
-        <v>0</v>
+        <v>20.48557768802739</v>
       </c>
       <c r="F182">
-        <v>0</v>
+        <v>20.47461318225404</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4014,19 +4014,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>20.83418876318059</v>
+        <v>20.58052650296749</v>
       </c>
       <c r="C183">
-        <v>20.95889017142925</v>
+        <v>20.66194549127603</v>
       </c>
       <c r="D183">
-        <v>20.96962778377377</v>
+        <v>20.47609349474147</v>
       </c>
       <c r="E183">
-        <v>0</v>
+        <v>20.36301625025599</v>
       </c>
       <c r="F183">
-        <v>0</v>
+        <v>20.3652080665284</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4034,19 +4034,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>20.70842261839955</v>
+        <v>20.4633699612606</v>
       </c>
       <c r="C184">
-        <v>20.83827576146655</v>
+        <v>20.5399854489776</v>
       </c>
       <c r="D184">
-        <v>20.84372654335691</v>
+        <v>20.35244980206529</v>
       </c>
       <c r="E184">
-        <v>0</v>
+        <v>20.24059072312379</v>
       </c>
       <c r="F184">
-        <v>0</v>
+        <v>20.25597076532473</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4054,19 +4054,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>20.58278220134023</v>
+        <v>20.34634311163932</v>
       </c>
       <c r="C185">
-        <v>20.71781099500296</v>
+        <v>20.41816396652636</v>
       </c>
       <c r="D185">
-        <v>20.7179511416464</v>
+        <v>20.2289345509652</v>
       </c>
       <c r="E185">
-        <v>0</v>
+        <v>20.11830115883641</v>
       </c>
       <c r="F185">
-        <v>0</v>
+        <v>20.1469016211871</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4074,19 +4074,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>20.45726738714419</v>
+        <v>20.22944633890144</v>
       </c>
       <c r="C186">
-        <v>20.59749600794831</v>
+        <v>20.29648109872137</v>
       </c>
       <c r="D186">
-        <v>20.59230145558671</v>
+        <v>20.10554781152869</v>
       </c>
       <c r="E186">
-        <v>0</v>
+        <v>19.99614761003022</v>
       </c>
       <c r="F186">
-        <v>0</v>
+        <v>20.03800097918545</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4094,19 +4094,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>20.33187805104675</v>
+        <v>20.11268002400181</v>
       </c>
       <c r="C187">
-        <v>20.47733094019637</v>
+        <v>20.17493690192791</v>
       </c>
       <c r="D187">
-        <v>20.46677736204935</v>
+        <v>19.98228965021939</v>
       </c>
       <c r="E187">
-        <v>0</v>
+        <v>19.8741301298269</v>
       </c>
       <c r="F187">
-        <v>0</v>
+        <v>19.92926919023061</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4114,19 +4114,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>20.20661406838028</v>
+        <v>19.99604453783074</v>
       </c>
       <c r="C188">
-        <v>20.35731593569913</v>
+        <v>20.05353143408328</v>
       </c>
       <c r="D188">
-        <v>20.34137873785127</v>
+        <v>19.85916013006317</v>
       </c>
       <c r="E188">
-        <v>0</v>
+        <v>19.75224877357187</v>
       </c>
       <c r="F188">
-        <v>0</v>
+        <v>19.82070660975797</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4134,19 +4134,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>20.08147531457716</v>
+        <v>19.87954024145251</v>
       </c>
       <c r="C189">
-        <v>20.23745114254288</v>
+        <v>19.93226475564395</v>
       </c>
       <c r="D189">
-        <v>20.21610545977153</v>
+        <v>19.73615931073251</v>
       </c>
       <c r="E189">
-        <v>0</v>
+        <v>19.63050359780711</v>
       </c>
       <c r="F189">
-        <v>0</v>
+        <v>19.71231359726065</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4154,19 +4154,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>19.95646166517241</v>
+        <v>19.76316749229506</v>
       </c>
       <c r="C190">
-        <v>20.11773671302603</v>
+        <v>19.81113692913452</v>
       </c>
       <c r="D190">
-        <v>20.09095740456626</v>
+        <v>19.61328725000474</v>
       </c>
       <c r="E190">
-        <v>0</v>
+        <v>19.50889466038203</v>
       </c>
       <c r="F190">
-        <v>0</v>
+        <v>19.6040905162231</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4174,19 +4174,19 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>19.83157299580611</v>
+        <v>19.64692664025123</v>
       </c>
       <c r="C191">
-        <v>19.99817280373884</v>
+        <v>19.69014801926319</v>
       </c>
       <c r="D191">
-        <v>19.96593444898234</v>
+        <v>19.49054400325529</v>
       </c>
       <c r="E191">
-        <v>0</v>
+        <v>19.38742202115749</v>
       </c>
       <c r="F191">
-        <v>0</v>
+        <v>19.49603773612656</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4194,19 +4194,19 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>19.70680918222569</v>
+        <v>19.53081802853444</v>
       </c>
       <c r="C192">
-        <v>19.87875957564502</v>
+        <v>19.5692980932794</v>
       </c>
       <c r="D192">
-        <v>19.84103646976976</v>
+        <v>19.36792962147005</v>
       </c>
       <c r="E192">
-        <v>0</v>
+        <v>19.26608574180828</v>
       </c>
       <c r="F192">
-        <v>0</v>
+        <v>19.38815563100241</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4214,19 +4214,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>19.58217010028786</v>
+        <v>19.41484199751318</v>
       </c>
       <c r="C193">
-        <v>19.75949719416537</v>
+        <v>19.44858722091747</v>
       </c>
       <c r="D193">
-        <v>19.71626334369282</v>
+        <v>19.24544415680155</v>
       </c>
       <c r="E193">
-        <v>0</v>
+        <v>19.14488588577742</v>
       </c>
       <c r="F193">
-        <v>0</v>
+        <v>19.28044457936367</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4234,19 +4234,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>19.4576556259605</v>
+        <v>19.29899888197128</v>
       </c>
       <c r="C194">
-        <v>19.64038582926338</v>
+        <v>19.32801547439413</v>
       </c>
       <c r="D194">
-        <v>19.59161494754028</v>
+        <v>19.12308765943025</v>
       </c>
       <c r="E194">
-        <v>0</v>
+        <v>19.02382251859849</v>
       </c>
       <c r="F194">
-        <v>0</v>
+        <v>19.17290496539005</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4254,19 +4254,19 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>19.33326563532433</v>
+        <v>19.1832890122836</v>
       </c>
       <c r="C195">
-        <v>19.52142565553294</v>
+        <v>19.20758292878667</v>
       </c>
       <c r="D195">
-        <v>19.46709115813466</v>
+        <v>19.00086017583822</v>
       </c>
       <c r="E195">
-        <v>0</v>
+        <v>18.90289570820309</v>
       </c>
       <c r="F195">
-        <v>0</v>
+        <v>19.06553717840023</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4274,19 +4274,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>19.20900000457446</v>
+        <v>19.06771271715996</v>
       </c>
       <c r="C196">
-        <v>19.40261685228822</v>
+        <v>19.08728966195877</v>
       </c>
       <c r="D196">
-        <v>19.34269185234059</v>
+        <v>18.87876175254734</v>
       </c>
       <c r="E196">
-        <v>0</v>
+        <v>18.78210552467267</v>
       </c>
       <c r="F196">
-        <v>0</v>
+        <v>18.95834161302653</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4294,19 +4294,19 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>19.08485861002177</v>
+        <v>18.95227032115693</v>
       </c>
       <c r="C197">
-        <v>19.28395960365573</v>
+        <v>18.96713575449477</v>
       </c>
       <c r="D197">
-        <v>19.21841690707248</v>
+        <v>18.7567924364638</v>
       </c>
       <c r="E197">
-        <v>0</v>
+        <v>18.66145204016519</v>
       </c>
       <c r="F197">
-        <v>0</v>
+        <v>18.85131866934946</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4314,19 +4314,19 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>18.96084132809425</v>
+        <v>18.83696214635793</v>
       </c>
       <c r="C198">
-        <v>19.16545409866875</v>
+        <v>18.8471212901677</v>
       </c>
       <c r="D198">
-        <v>19.09426619930147</v>
+        <v>18.63495227267476</v>
       </c>
       <c r="E198">
-        <v>0</v>
+        <v>18.54093532979558</v>
       </c>
       <c r="F198">
-        <v>0</v>
+        <v>18.74446875311806</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4334,19 +4334,19 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>18.83694803533814</v>
+        <v>18.7217885141491</v>
       </c>
       <c r="C199">
-        <v>19.04710053136365</v>
+        <v>18.7272463558017</v>
       </c>
       <c r="D199">
-        <v>18.97023960606177</v>
+        <v>18.51324130386457</v>
       </c>
       <c r="E199">
-        <v>0</v>
+        <v>18.4205554711707</v>
       </c>
       <c r="F199">
-        <v>0</v>
+        <v>18.63779227576781</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4354,19 +4354,19 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>18.71317860841908</v>
+        <v>18.60674974311179</v>
       </c>
       <c r="C200">
-        <v>18.9288991008792</v>
+        <v>18.6075110412979</v>
       </c>
       <c r="D200">
-        <v>18.84633700445648</v>
+        <v>18.39165957505955</v>
       </c>
       <c r="E200">
-        <v>0</v>
+        <v>18.30031254426759</v>
       </c>
       <c r="F200">
-        <v>0</v>
+        <v>18.53128965440576</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4374,19 +4374,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>18.58953292412312</v>
+        <v>18.49184615106029</v>
       </c>
       <c r="C201">
-        <v>18.81085001155832</v>
+        <v>18.48791543994828</v>
       </c>
       <c r="D201">
-        <v>18.7225582716628</v>
+        <v>18.27020713032237</v>
       </c>
       <c r="E201">
-        <v>0</v>
+        <v>18.18020663222544</v>
       </c>
       <c r="F201">
-        <v>0</v>
+        <v>18.4249613122155</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4394,19 +4394,19 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>18.46601085935761</v>
+        <v>18.37707805581402</v>
       </c>
       <c r="C202">
-        <v>18.69295347305207</v>
+        <v>18.36845964839302</v>
       </c>
       <c r="D202">
-        <v>18.59890328493692</v>
+        <v>18.14888401228075</v>
       </c>
       <c r="E202">
-        <v>0</v>
+        <v>18.06023782099797</v>
       </c>
       <c r="F202">
-        <v>0</v>
+        <v>18.31880767837146</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4414,19 +4414,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>18.34261229115213</v>
+        <v>18.26244577378637</v>
       </c>
       <c r="C203">
-        <v>18.57520970042621</v>
+        <v>18.24914376677012</v>
       </c>
       <c r="D203">
-        <v>18.47537192161839</v>
+        <v>18.02769026504235</v>
       </c>
       <c r="E203">
-        <v>0</v>
+        <v>17.94040619954394</v>
       </c>
       <c r="F203">
-        <v>0</v>
+        <v>18.21282918808796</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4434,19 +4434,19 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>18.21933709665925</v>
+        <v>18.14794962202688</v>
       </c>
       <c r="C204">
-        <v>18.45761891427076</v>
+        <v>18.12996789878027</v>
       </c>
       <c r="D204">
-        <v>18.35196405913416</v>
+        <v>17.9066259327633</v>
       </c>
       <c r="E204">
-        <v>0</v>
+        <v>17.8207118599579</v>
       </c>
       <c r="F204">
-        <v>0</v>
+        <v>18.10702628277651</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4454,19 +4454,19 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>18.09618515315533</v>
+        <v>18.03358991828272</v>
       </c>
       <c r="C205">
-        <v>18.34018134081226</v>
+        <v>18.0109321518037</v>
       </c>
       <c r="D205">
-        <v>18.22867957500228</v>
+        <v>17.7856910597875</v>
       </c>
       <c r="E205">
-        <v>0</v>
+        <v>17.70115489758692</v>
       </c>
       <c r="F205">
-        <v>0</v>
+        <v>18.00139941030836</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4474,19 +4474,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>17.97315633804122</v>
+        <v>17.91936698016421</v>
       </c>
       <c r="C206">
-        <v>18.22289721202884</v>
+        <v>17.89203663709067</v>
       </c>
       <c r="D206">
-        <v>18.10551834683527</v>
+        <v>17.66488569098207</v>
       </c>
       <c r="E206">
-        <v>0</v>
+        <v>17.58173541114957</v>
       </c>
       <c r="F206">
-        <v>0</v>
+        <v>17.89594902494723</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4494,19 +4494,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>17.85025052884289</v>
+        <v>17.80528112710813</v>
       </c>
       <c r="C207">
-        <v>18.10576676576826</v>
+        <v>17.77328146971726</v>
       </c>
       <c r="D207">
-        <v>17.98248025234327</v>
+        <v>17.54420987235813</v>
       </c>
       <c r="E207">
-        <v>0</v>
+        <v>17.46245350289406</v>
       </c>
       <c r="F207">
-        <v>0</v>
+        <v>17.79067558739706</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4514,19 +4514,19 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>17.72746760321209</v>
+        <v>17.6913326799924</v>
       </c>
       <c r="C208">
-        <v>17.98879024586899</v>
+        <v>17.6546667687622</v>
       </c>
       <c r="D208">
-        <v>17.85956516933686</v>
+        <v>17.42366365072181</v>
       </c>
       <c r="E208">
-        <v>0</v>
+        <v>17.34330927856601</v>
       </c>
       <c r="F208">
-        <v>0</v>
+        <v>17.68557956512203</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4534,19 +4534,19 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>17.60480743892693</v>
+        <v>17.57752196066082</v>
       </c>
       <c r="C209">
-        <v>17.87196790228446</v>
+        <v>17.53619265750917</v>
       </c>
       <c r="D209">
-        <v>17.73677297572972</v>
+        <v>17.30324707346638</v>
       </c>
       <c r="E209">
-        <v>0</v>
+        <v>17.22430284763421</v>
       </c>
       <c r="F209">
-        <v>0</v>
+        <v>17.58066143230246</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4554,19 +4554,19 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>17.48226991389243</v>
+        <v>17.46384929380397</v>
       </c>
       <c r="C210">
-        <v>17.75529999121053</v>
+        <v>17.41785926339587</v>
       </c>
       <c r="D210">
-        <v>17.61410354954104</v>
+        <v>17.18296018980428</v>
       </c>
       <c r="E210">
-        <v>0</v>
+        <v>17.10543432349862</v>
       </c>
       <c r="F210">
-        <v>0</v>
+        <v>17.47592167001758</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4574,19 +4574,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>17.35985490614107</v>
+        <v>17.35031500629919</v>
       </c>
       <c r="C211">
-        <v>17.63878677521637</v>
+        <v>17.29966671818669</v>
       </c>
       <c r="D211">
-        <v>17.49155676889775</v>
+        <v>17.06280305017379</v>
       </c>
       <c r="E211">
-        <v>0</v>
+        <v>16.98670382337178</v>
       </c>
       <c r="F211">
-        <v>0</v>
+        <v>17.37136076631987</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4594,19 +4594,19 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>17.2375622938333</v>
+        <v>17.2369194270973</v>
       </c>
       <c r="C212">
-        <v>17.52242852337852</v>
+        <v>17.18161515819747</v>
       </c>
       <c r="D212">
-        <v>17.36913251203661</v>
+        <v>16.94277570603118</v>
       </c>
       <c r="E212">
-        <v>0</v>
+        <v>16.86811146854853</v>
       </c>
       <c r="F212">
-        <v>0</v>
+        <v>17.26697921631398</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4614,19 +4614,19 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>17.11539195525799</v>
+        <v>17.12366288872527</v>
       </c>
       <c r="C213">
-        <v>17.40622551141884</v>
+        <v>17.06370472424593</v>
       </c>
       <c r="D213">
-        <v>17.24683065730613</v>
+        <v>16.82287821068403</v>
       </c>
       <c r="E213">
-        <v>0</v>
+        <v>16.74965738458395</v>
       </c>
       <c r="F213">
-        <v>0</v>
+        <v>17.16277752232542</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4634,19 +4634,19 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>16.99334376883298</v>
+        <v>17.01054572674401</v>
       </c>
       <c r="C214">
-        <v>17.29017802184585</v>
+        <v>16.94593556181441</v>
       </c>
       <c r="D214">
-        <v>17.1246510831683</v>
+        <v>16.70311061935339</v>
       </c>
       <c r="E214">
-        <v>0</v>
+        <v>16.63134170129855</v>
       </c>
       <c r="F214">
-        <v>0</v>
+        <v>17.05875619412527</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4654,19 +4654,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>16.87141761310542</v>
+        <v>16.8975682798197</v>
       </c>
       <c r="C215">
-        <v>17.17428634410001</v>
+        <v>16.82830782131998</v>
       </c>
       <c r="D215">
-        <v>17.00259366820029</v>
+        <v>16.5834729889215</v>
       </c>
       <c r="E215">
-        <v>0</v>
+        <v>16.51316455288734</v>
       </c>
       <c r="F215">
-        <v>0</v>
+        <v>16.95491574876134</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4674,19 +4674,19 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>16.74961336675235</v>
+        <v>16.78473089084435</v>
       </c>
       <c r="C216">
-        <v>17.05855077470282</v>
+        <v>16.71082165804612</v>
       </c>
       <c r="D216">
-        <v>16.88065829109597</v>
+        <v>16.46396537797211</v>
       </c>
       <c r="E216">
-        <v>0</v>
+        <v>16.39512607817311</v>
       </c>
       <c r="F216">
-        <v>0</v>
+        <v>16.85125671086984</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4694,19 +4694,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>16.62793090858102</v>
+        <v>16.67203390658247</v>
       </c>
       <c r="C217">
-        <v>16.94297161740977</v>
+        <v>16.59347723229778</v>
       </c>
       <c r="D217">
-        <v>16.75884483066737</v>
+        <v>16.34458784760681</v>
       </c>
       <c r="E217">
-        <v>0</v>
+        <v>16.27722642076959</v>
       </c>
       <c r="F217">
-        <v>0</v>
+        <v>16.74777961284761</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4714,19 +4714,19 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>16.50637011752939</v>
+        <v>16.55947767788112</v>
       </c>
       <c r="C218">
-        <v>16.82754918336776</v>
+        <v>16.47627470973049</v>
       </c>
       <c r="D218">
-        <v>16.63715316584597</v>
+        <v>16.22534046103141</v>
       </c>
       <c r="E218">
-        <v>0</v>
+        <v>16.1594657289305</v>
       </c>
       <c r="F218">
-        <v>0</v>
+        <v>16.64448499484519</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4734,19 +4734,19 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>16.38493087266651</v>
+        <v>16.44706256044472</v>
       </c>
       <c r="C219">
-        <v>16.7122837912765</v>
+        <v>16.35921426126541</v>
       </c>
       <c r="D219">
-        <v>16.51558317568401</v>
+        <v>16.10622328364941</v>
       </c>
       <c r="E219">
-        <v>0</v>
+        <v>16.04184415591846</v>
       </c>
       <c r="F219">
-        <v>0</v>
+        <v>16.54137340486477</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4754,19 +4754,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>16.26361305319292</v>
+        <v>16.33478891468366</v>
       </c>
       <c r="C220">
-        <v>16.59717576755455</v>
+        <v>16.24229606322595</v>
       </c>
       <c r="D220">
-        <v>16.39413473935567</v>
+        <v>15.9872363835065</v>
       </c>
       <c r="E220">
-        <v>0</v>
+        <v>15.92436186040314</v>
       </c>
       <c r="F220">
-        <v>0</v>
+        <v>16.43844539897807</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4774,19 +4774,19 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>16.14241653844115</v>
+        <v>16.22265710599389</v>
       </c>
       <c r="C221">
-        <v>16.4822254465096</v>
+        <v>16.12552029772642</v>
       </c>
       <c r="D221">
-        <v>16.27280773615815</v>
+        <v>15.868379831219</v>
       </c>
       <c r="E221">
-        <v>0</v>
+        <v>15.80701900595925</v>
       </c>
       <c r="F221">
-        <v>0</v>
+        <v>16.33570154152478</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4794,19 +4794,19 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>16.02134120787601</v>
+        <v>16.11066750529264</v>
       </c>
       <c r="C222">
-        <v>16.36743317051375</v>
+        <v>16.00888715259012</v>
       </c>
       <c r="D222">
-        <v>16.1516020455128</v>
+        <v>15.74965370016797</v>
       </c>
       <c r="E222">
-        <v>0</v>
+        <v>15.68981576163298</v>
       </c>
       <c r="F222">
-        <v>0</v>
+        <v>16.23314240496594</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4814,19 +4814,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>15.9003869410951</v>
+        <v>15.99882048902364</v>
       </c>
       <c r="C223">
-        <v>16.25279929018347</v>
+        <v>15.89239682145399</v>
       </c>
       <c r="D223">
-        <v>16.03051754696605</v>
+        <v>15.63105806661952</v>
       </c>
       <c r="E223">
-        <v>0</v>
+        <v>15.57275230229655</v>
       </c>
       <c r="F223">
-        <v>0</v>
+        <v>16.13076857019936</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4834,19 +4834,19 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>15.77955361782918</v>
+        <v>15.88711643946384</v>
       </c>
       <c r="C224">
-        <v>16.13832416456463</v>
+        <v>15.77604950421422</v>
       </c>
       <c r="D224">
-        <v>15.90955412019045</v>
+        <v>15.51259300982315</v>
       </c>
       <c r="E224">
-        <v>0</v>
+        <v>15.45582880838599</v>
       </c>
       <c r="F224">
-        <v>0</v>
+        <v>16.02858062678924</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4854,19 +4854,19 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>15.65884111794258</v>
+        <v>15.77555574510992</v>
       </c>
       <c r="C225">
-        <v>16.02400816132273</v>
+        <v>15.65984540696351</v>
       </c>
       <c r="D225">
-        <v>15.7887116449855</v>
+        <v>15.394258612192</v>
       </c>
       <c r="E225">
-        <v>0</v>
+        <v>15.3390454661066</v>
       </c>
       <c r="F225">
-        <v>0</v>
+        <v>15.92657917287505</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4874,19 +4874,19 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>15.53824932143369</v>
+        <v>15.66413880078989</v>
       </c>
       <c r="C226">
-        <v>15.90985165693824</v>
+        <v>15.54378474205505</v>
       </c>
       <c r="D226">
-        <v>15.66799000127861</v>
+        <v>15.27605495951245</v>
       </c>
       <c r="E226">
-        <v>0</v>
+        <v>15.22240246789168</v>
       </c>
       <c r="F226">
-        <v>0</v>
+        <v>15.82476481534212</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4894,19 +4894,19 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>15.41777810843529</v>
+        <v>15.55286600799263</v>
       </c>
       <c r="C227">
-        <v>15.7958550369078</v>
+        <v>15.42786772860789</v>
       </c>
       <c r="D227">
-        <v>15.54738906912591</v>
+        <v>15.1579821408849</v>
       </c>
       <c r="E227">
-        <v>0</v>
+        <v>15.10590001257288</v>
       </c>
       <c r="F227">
-        <v>0</v>
+        <v>15.72313817006452</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4914,19 +4914,19 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>15.29742735921507</v>
+        <v>15.44173777517504</v>
       </c>
       <c r="C228">
-        <v>15.68201869595084</v>
+        <v>15.31209459247192</v>
       </c>
       <c r="D228">
-        <v>15.42690872871311</v>
+        <v>15.0400402489941</v>
       </c>
       <c r="E228">
-        <v>0</v>
+        <v>14.98953830502209</v>
       </c>
       <c r="F228">
-        <v>0</v>
+        <v>15.6216998621262</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4934,19 +4934,19 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>15.17719695417606</v>
+        <v>15.33075451797273</v>
       </c>
       <c r="C229">
-        <v>15.56834303822234</v>
+        <v>15.19646556624213</v>
       </c>
       <c r="D229">
-        <v>15.30654886035623</v>
+        <v>14.92222938033947</v>
       </c>
       <c r="E229">
-        <v>0</v>
+        <v>14.87331755680543</v>
       </c>
       <c r="F229">
-        <v>0</v>
+        <v>15.52045052558922</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4954,19 +4954,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>15.05708677385707</v>
+        <v>15.21991665948802</v>
       </c>
       <c r="C230">
-        <v>15.45482847753143</v>
+        <v>15.08098088983328</v>
       </c>
       <c r="D230">
-        <v>15.18630934450248</v>
+        <v>14.80454963519933</v>
       </c>
       <c r="E230">
-        <v>0</v>
+        <v>14.7572379867348</v>
       </c>
       <c r="F230">
-        <v>0</v>
+        <v>15.41939080390321</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4974,19 +4974,19 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>14.93709669893317</v>
+        <v>15.1092246305748</v>
       </c>
       <c r="C231">
-        <v>15.34147543756635</v>
+        <v>14.96564081047932</v>
       </c>
       <c r="D231">
-        <v>15.06619006173093</v>
+        <v>14.68700111780671</v>
       </c>
       <c r="E231">
-        <v>0</v>
+        <v>14.64129982001832</v>
       </c>
       <c r="F231">
-        <v>0</v>
+        <v>15.31852135021829</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -4994,19 +4994,19 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>14.8172266102162</v>
+        <v>14.99867887004509</v>
       </c>
       <c r="C232">
-        <v>15.22828435212603</v>
+        <v>14.85044558268564</v>
       </c>
       <c r="D232">
-        <v>14.94619089275334</v>
+        <v>14.56958393662193</v>
       </c>
       <c r="E232">
-        <v>0</v>
+        <v>14.525503289142</v>
       </c>
       <c r="F232">
-        <v>0</v>
+        <v>15.2178428271292</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5014,19 +5014,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>14.69747638865522</v>
+        <v>14.88827982498192</v>
       </c>
       <c r="C233">
-        <v>15.11525566535829</v>
+        <v>14.73539546888433</v>
       </c>
       <c r="D233">
-        <v>14.82631171841486</v>
+        <v>14.45229820454016</v>
       </c>
       <c r="E233">
-        <v>0</v>
+        <v>14.40984863443015</v>
       </c>
       <c r="F233">
-        <v>0</v>
+        <v>15.11735590698166</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5034,19 +5034,19 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>14.57784591533709</v>
+        <v>14.77802795099209</v>
       </c>
       <c r="C234">
-        <v>15.00238983200521</v>
+        <v>14.6204907394772</v>
       </c>
       <c r="D234">
-        <v>14.7065524196948</v>
+        <v>14.33514403868358</v>
       </c>
       <c r="E234">
-        <v>0</v>
+        <v>14.29433610346512</v>
       </c>
       <c r="F234">
-        <v>0</v>
+        <v>15.01706127212951</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5054,19 +5054,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>14.45833507148695</v>
+        <v>14.6679237129885</v>
       </c>
       <c r="C235">
-        <v>14.88968731765514</v>
+        <v>14.5057316727124</v>
       </c>
       <c r="D235">
-        <v>14.58691287770734</v>
+        <v>14.21812156083304</v>
       </c>
       <c r="E235">
-        <v>0</v>
+        <v>14.17896595151745</v>
       </c>
       <c r="F235">
-        <v>0</v>
+        <v>14.91695961513505</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5074,19 +5074,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>14.33894373846879</v>
+        <v>14.5579675845224</v>
       </c>
       <c r="C236">
-        <v>14.77714859900284</v>
+        <v>14.39111855565793</v>
       </c>
       <c r="D236">
-        <v>14.46739297370231</v>
+        <v>14.10123089799339</v>
       </c>
       <c r="E236">
-        <v>0</v>
+        <v>14.06373844220227</v>
       </c>
       <c r="F236">
-        <v>0</v>
+        <v>14.81705163854054</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5094,19 +5094,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>14.21967179778603</v>
+        <v>14.4481600485711</v>
       </c>
       <c r="C237">
-        <v>14.66477416411688</v>
+        <v>14.27665168408477</v>
       </c>
       <c r="D237">
-        <v>14.34799258906589</v>
+        <v>13.98447218165731</v>
       </c>
       <c r="E237">
-        <v>0</v>
+        <v>13.94865384762245</v>
       </c>
       <c r="F237">
-        <v>0</v>
+        <v>14.71733805531717</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5114,19 +5114,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>14.10051913108213</v>
+        <v>14.3385015978043</v>
       </c>
       <c r="C238">
-        <v>14.55256451271523</v>
+        <v>14.1623313618895</v>
       </c>
       <c r="D238">
-        <v>14.22871160532138</v>
+        <v>13.86784554855619</v>
       </c>
       <c r="E238">
-        <v>0</v>
+        <v>13.83371244786536</v>
       </c>
       <c r="F238">
-        <v>0</v>
+        <v>14.61781958925131</v>
       </c>
     </row>
   </sheetData>
